--- a/config_12.21/shoping_config.xlsx
+++ b/config_12.21/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6159" uniqueCount="2172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6159" uniqueCount="2171">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7324,10 +7324,6 @@
   </si>
   <si>
     <t>江山锦绣</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳礼包</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -9003,13 +8999,13 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -14931,10 +14927,10 @@
   <dimension ref="A1:AO788"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H770" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Z704" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I793" sqref="I793"/>
+      <selection pane="bottomRight" activeCell="AB717" sqref="AB717"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -15134,7 +15130,7 @@
         <v>200</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="S2" s="76" t="s">
         <v>172</v>
@@ -58229,7 +58225,7 @@
         <v>1</v>
       </c>
       <c r="G671" s="91" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="H671" s="91" t="s">
         <v>1871</v>
@@ -58238,7 +58234,7 @@
         <v>1538</v>
       </c>
       <c r="K671" s="91" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="M671" s="91">
         <v>-31</v>
@@ -58256,7 +58252,7 @@
         <v>600</v>
       </c>
       <c r="R671" s="91" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="S671" s="88" t="s">
         <v>1560</v>
@@ -58300,7 +58296,7 @@
         <v>1</v>
       </c>
       <c r="G672" s="91" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="H672" s="91" t="s">
         <v>1871</v>
@@ -58309,7 +58305,7 @@
         <v>1538</v>
       </c>
       <c r="K672" s="91" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="M672" s="91">
         <v>-31</v>
@@ -58327,7 +58323,7 @@
         <v>1000</v>
       </c>
       <c r="R672" s="91" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="S672" s="88" t="s">
         <v>1562</v>
@@ -58338,7 +58334,7 @@
       <c r="Y672" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z672" s="109">
+      <c r="Z672" s="108">
         <v>1638835200</v>
       </c>
       <c r="AA672" s="94">
@@ -58371,7 +58367,7 @@
         <v>1</v>
       </c>
       <c r="G673" s="91" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="H673" s="91" t="s">
         <v>1871</v>
@@ -58380,7 +58376,7 @@
         <v>1538</v>
       </c>
       <c r="K673" s="91" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="M673" s="91">
         <v>-31</v>
@@ -58398,7 +58394,7 @@
         <v>1800</v>
       </c>
       <c r="R673" s="91" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="S673" s="88" t="s">
         <v>1564</v>
@@ -58409,10 +58405,10 @@
       <c r="Y673" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z673" s="109">
+      <c r="Z673" s="108">
         <v>1638835200</v>
       </c>
-      <c r="AA673" s="109">
+      <c r="AA673" s="108">
         <v>1639411199</v>
       </c>
       <c r="AB673" s="101">
@@ -58442,7 +58438,7 @@
         <v>1</v>
       </c>
       <c r="G674" s="91" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="H674" s="91" t="s">
         <v>1871</v>
@@ -58469,7 +58465,7 @@
         <v>1800</v>
       </c>
       <c r="R674" s="91" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="S674" s="88" t="s">
         <v>1547</v>
@@ -58480,10 +58476,10 @@
       <c r="Y674" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z674" s="109">
+      <c r="Z674" s="108">
         <v>1638835200</v>
       </c>
-      <c r="AA674" s="109">
+      <c r="AA674" s="108">
         <v>1639411199</v>
       </c>
       <c r="AB674" s="101">
@@ -58513,7 +58509,7 @@
         <v>1</v>
       </c>
       <c r="G675" s="91" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="H675" s="91" t="s">
         <v>1871</v>
@@ -58540,7 +58536,7 @@
         <v>3000</v>
       </c>
       <c r="R675" s="91" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="S675" s="88" t="s">
         <v>1549</v>
@@ -58551,10 +58547,10 @@
       <c r="Y675" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z675" s="109">
+      <c r="Z675" s="108">
         <v>1638835200</v>
       </c>
-      <c r="AA675" s="109">
+      <c r="AA675" s="108">
         <v>1639411199</v>
       </c>
       <c r="AB675" s="101">
@@ -58584,7 +58580,7 @@
         <v>1</v>
       </c>
       <c r="G676" s="91" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="H676" s="91" t="s">
         <v>1871</v>
@@ -58611,7 +58607,7 @@
         <v>4800</v>
       </c>
       <c r="R676" s="91" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="S676" s="88" t="s">
         <v>1551</v>
@@ -58622,10 +58618,10 @@
       <c r="Y676" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z676" s="109">
+      <c r="Z676" s="108">
         <v>1638835200</v>
       </c>
-      <c r="AA676" s="109">
+      <c r="AA676" s="108">
         <v>1639411199</v>
       </c>
       <c r="AB676" s="101">
@@ -58655,7 +58651,7 @@
         <v>1</v>
       </c>
       <c r="G677" s="91" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="H677" s="91" t="s">
         <v>1871</v>
@@ -58682,7 +58678,7 @@
         <v>4800</v>
       </c>
       <c r="R677" s="91" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="S677" s="88" t="s">
         <v>1551</v>
@@ -58693,10 +58689,10 @@
       <c r="Y677" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z677" s="109">
+      <c r="Z677" s="108">
         <v>1638835200</v>
       </c>
-      <c r="AA677" s="109">
+      <c r="AA677" s="108">
         <v>1639411199</v>
       </c>
       <c r="AB677" s="101">
@@ -58726,7 +58722,7 @@
         <v>1</v>
       </c>
       <c r="G678" s="91" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="H678" s="91" t="s">
         <v>1871</v>
@@ -58753,7 +58749,7 @@
         <v>9800</v>
       </c>
       <c r="R678" s="91" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="S678" s="88" t="s">
         <v>1554</v>
@@ -58764,10 +58760,10 @@
       <c r="Y678" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z678" s="109">
+      <c r="Z678" s="108">
         <v>1638835200</v>
       </c>
-      <c r="AA678" s="109">
+      <c r="AA678" s="108">
         <v>1639411199</v>
       </c>
       <c r="AB678" s="101">
@@ -58797,7 +58793,7 @@
         <v>1</v>
       </c>
       <c r="G679" s="91" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="H679" s="91" t="s">
         <v>1871</v>
@@ -58824,7 +58820,7 @@
         <v>19800</v>
       </c>
       <c r="R679" s="91" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="S679" s="88" t="s">
         <v>1556</v>
@@ -58835,10 +58831,10 @@
       <c r="Y679" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z679" s="109">
+      <c r="Z679" s="108">
         <v>1638835200</v>
       </c>
-      <c r="AA679" s="109">
+      <c r="AA679" s="108">
         <v>1639411199</v>
       </c>
       <c r="AB679" s="101">
@@ -58868,7 +58864,7 @@
         <v>1</v>
       </c>
       <c r="G680" s="91" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="H680" s="91" t="s">
         <v>1871</v>
@@ -58895,7 +58891,7 @@
         <v>9800</v>
       </c>
       <c r="R680" s="91" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="S680" s="88" t="s">
         <v>1554</v>
@@ -58906,10 +58902,10 @@
       <c r="Y680" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z680" s="109">
+      <c r="Z680" s="108">
         <v>1638835200</v>
       </c>
-      <c r="AA680" s="109">
+      <c r="AA680" s="108">
         <v>1639411199</v>
       </c>
       <c r="AB680" s="101">
@@ -58939,7 +58935,7 @@
         <v>1</v>
       </c>
       <c r="G681" s="91" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="H681" s="91" t="s">
         <v>1871</v>
@@ -58966,7 +58962,7 @@
         <v>19800</v>
       </c>
       <c r="R681" s="91" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="S681" s="88" t="s">
         <v>1556</v>
@@ -58977,10 +58973,10 @@
       <c r="Y681" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z681" s="109">
+      <c r="Z681" s="108">
         <v>1638835200</v>
       </c>
-      <c r="AA681" s="109">
+      <c r="AA681" s="108">
         <v>1639411199</v>
       </c>
       <c r="AB681" s="101">
@@ -59010,7 +59006,7 @@
         <v>1</v>
       </c>
       <c r="G682" s="91" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="H682" s="91" t="s">
         <v>1871</v>
@@ -59037,7 +59033,7 @@
         <v>49800</v>
       </c>
       <c r="R682" s="91" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="S682" s="88" t="s">
         <v>1558</v>
@@ -59048,10 +59044,10 @@
       <c r="Y682" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z682" s="109">
+      <c r="Z682" s="108">
         <v>1638835200</v>
       </c>
-      <c r="AA682" s="109">
+      <c r="AA682" s="108">
         <v>1639411199</v>
       </c>
       <c r="AB682" s="101">
@@ -60534,7 +60530,7 @@
         <v>1115</v>
       </c>
       <c r="X704" s="95" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="Y704" s="93">
         <v>99999999</v>
@@ -60856,16 +60852,16 @@
         <v>1</v>
       </c>
       <c r="G709" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="H709" s="111" t="s">
         <v>1902</v>
-      </c>
-      <c r="H709" s="111" t="s">
-        <v>1903</v>
       </c>
       <c r="J709" s="99" t="s">
         <v>1538</v>
       </c>
       <c r="K709" s="99" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="M709" s="99">
         <v>-31</v>
@@ -60877,19 +60873,19 @@
         <v>0</v>
       </c>
       <c r="P709" s="99" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="Q709" s="99">
         <v>600</v>
       </c>
       <c r="R709" s="99" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="S709" s="88" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="X709" s="99" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="Y709" s="99">
         <v>99999999</v>
@@ -60927,14 +60923,14 @@
         <v>1</v>
       </c>
       <c r="G710" s="99" t="s">
-        <v>1902</v>
+        <v>176</v>
       </c>
       <c r="H710" s="111"/>
       <c r="J710" s="99" t="s">
         <v>1538</v>
       </c>
       <c r="K710" s="99" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="M710" s="99">
         <v>-31</v>
@@ -60946,19 +60942,19 @@
         <v>0</v>
       </c>
       <c r="P710" s="99" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="Q710" s="99">
         <v>1000</v>
       </c>
       <c r="R710" s="99" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="S710" s="88" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="X710" s="99" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="Y710" s="99">
         <v>99999999</v>
@@ -60996,14 +60992,14 @@
         <v>1</v>
       </c>
       <c r="G711" s="99" t="s">
-        <v>1902</v>
+        <v>176</v>
       </c>
       <c r="H711" s="111"/>
       <c r="J711" s="99" t="s">
         <v>1538</v>
       </c>
       <c r="K711" s="99" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="M711" s="99">
         <v>-31</v>
@@ -61015,16 +61011,16 @@
         <v>0</v>
       </c>
       <c r="P711" s="99" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="Q711" s="99">
         <v>1800</v>
       </c>
       <c r="R711" s="99" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="S711" s="88" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="X711" s="99" t="s">
         <v>478</v>
@@ -61065,14 +61061,14 @@
         <v>1</v>
       </c>
       <c r="G712" s="99" t="s">
-        <v>1902</v>
+        <v>176</v>
       </c>
       <c r="H712" s="111"/>
       <c r="J712" s="99" t="s">
         <v>1538</v>
       </c>
       <c r="K712" s="99" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="M712" s="99">
         <v>-31</v>
@@ -61084,16 +61080,16 @@
         <v>0</v>
       </c>
       <c r="P712" s="99" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="Q712" s="99">
         <v>3400</v>
       </c>
       <c r="R712" s="99" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="S712" s="88" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="X712" s="99" t="s">
         <v>478</v>
@@ -61134,14 +61130,14 @@
         <v>1</v>
       </c>
       <c r="G713" s="99" t="s">
-        <v>1902</v>
+        <v>176</v>
       </c>
       <c r="H713" s="111"/>
       <c r="J713" s="99" t="s">
         <v>1545</v>
       </c>
       <c r="K713" s="99" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="M713" s="99">
         <v>-31</v>
@@ -61153,16 +61149,16 @@
         <v>0</v>
       </c>
       <c r="P713" s="99" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="Q713" s="99">
         <v>1800</v>
       </c>
       <c r="R713" s="99" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="S713" s="88" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="X713" s="99" t="s">
         <v>478</v>
@@ -61203,14 +61199,14 @@
         <v>1</v>
       </c>
       <c r="G714" s="99" t="s">
-        <v>1902</v>
+        <v>176</v>
       </c>
       <c r="H714" s="111"/>
       <c r="J714" s="99" t="s">
         <v>1545</v>
       </c>
       <c r="K714" s="99" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="M714" s="99">
         <v>-31</v>
@@ -61222,16 +61218,16 @@
         <v>0</v>
       </c>
       <c r="P714" s="99" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="Q714" s="99">
         <v>3000</v>
       </c>
       <c r="R714" s="99" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="S714" s="88" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="X714" s="99" t="s">
         <v>478</v>
@@ -61272,14 +61268,14 @@
         <v>1</v>
       </c>
       <c r="G715" s="99" t="s">
-        <v>1902</v>
+        <v>176</v>
       </c>
       <c r="H715" s="111"/>
       <c r="J715" s="99" t="s">
         <v>1545</v>
       </c>
       <c r="K715" s="99" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="M715" s="99">
         <v>-31</v>
@@ -61291,16 +61287,16 @@
         <v>0</v>
       </c>
       <c r="P715" s="99" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="Q715" s="99">
         <v>4800</v>
       </c>
       <c r="R715" s="99" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="S715" s="88" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="X715" s="99" t="s">
         <v>478</v>
@@ -61341,14 +61337,14 @@
         <v>1</v>
       </c>
       <c r="G716" s="99" t="s">
-        <v>1902</v>
+        <v>176</v>
       </c>
       <c r="H716" s="111"/>
       <c r="J716" s="99" t="s">
         <v>1545</v>
       </c>
       <c r="K716" s="99" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="M716" s="99">
         <v>-31</v>
@@ -61360,16 +61356,16 @@
         <v>0</v>
       </c>
       <c r="P716" s="99" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="Q716" s="99">
         <v>9600</v>
       </c>
       <c r="R716" s="99" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="S716" s="88" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="X716" s="99" t="s">
         <v>478</v>
@@ -61410,14 +61406,14 @@
         <v>1</v>
       </c>
       <c r="G717" s="99" t="s">
-        <v>1902</v>
+        <v>176</v>
       </c>
       <c r="H717" s="111"/>
       <c r="J717" s="99" t="s">
         <v>1552</v>
       </c>
       <c r="K717" s="99" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="M717" s="99">
         <v>-31</v>
@@ -61429,16 +61425,16 @@
         <v>0</v>
       </c>
       <c r="P717" s="99" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="Q717" s="99">
         <v>4800</v>
       </c>
       <c r="R717" s="99" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="S717" s="88" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="X717" s="99" t="s">
         <v>478</v>
@@ -61479,14 +61475,14 @@
         <v>1</v>
       </c>
       <c r="G718" s="99" t="s">
-        <v>1902</v>
+        <v>176</v>
       </c>
       <c r="H718" s="111"/>
       <c r="J718" s="99" t="s">
         <v>1552</v>
       </c>
       <c r="K718" s="99" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="M718" s="99">
         <v>-31</v>
@@ -61498,16 +61494,16 @@
         <v>0</v>
       </c>
       <c r="P718" s="99" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="Q718" s="99">
         <v>9800</v>
       </c>
       <c r="R718" s="99" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="S718" s="88" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="X718" s="99" t="s">
         <v>478</v>
@@ -61548,14 +61544,14 @@
         <v>1</v>
       </c>
       <c r="G719" s="99" t="s">
-        <v>1902</v>
+        <v>176</v>
       </c>
       <c r="H719" s="111"/>
       <c r="J719" s="99" t="s">
         <v>1552</v>
       </c>
       <c r="K719" s="99" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="M719" s="99">
         <v>-31</v>
@@ -61567,16 +61563,16 @@
         <v>0</v>
       </c>
       <c r="P719" s="99" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="Q719" s="99">
         <v>19800</v>
       </c>
       <c r="R719" s="99" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="S719" s="88" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="X719" s="99" t="s">
         <v>478</v>
@@ -61617,14 +61613,14 @@
         <v>1</v>
       </c>
       <c r="G720" s="99" t="s">
-        <v>1902</v>
+        <v>176</v>
       </c>
       <c r="H720" s="111"/>
       <c r="J720" s="99" t="s">
         <v>1552</v>
       </c>
       <c r="K720" s="99" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="M720" s="99">
         <v>-31</v>
@@ -61636,16 +61632,16 @@
         <v>0</v>
       </c>
       <c r="P720" s="99" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="Q720" s="99">
         <v>34400</v>
       </c>
       <c r="R720" s="99" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="S720" s="88" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="X720" s="99" t="s">
         <v>478</v>
@@ -61686,14 +61682,14 @@
         <v>1</v>
       </c>
       <c r="G721" s="99" t="s">
-        <v>1902</v>
+        <v>176</v>
       </c>
       <c r="H721" s="111"/>
       <c r="J721" s="99" t="s">
         <v>1441</v>
       </c>
       <c r="K721" s="99" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="M721" s="99">
         <v>-31</v>
@@ -61705,16 +61701,16 @@
         <v>0</v>
       </c>
       <c r="P721" s="99" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="Q721" s="99">
         <v>9800</v>
       </c>
       <c r="R721" s="99" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="S721" s="88" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="X721" s="99" t="s">
         <v>478</v>
@@ -61755,14 +61751,14 @@
         <v>1</v>
       </c>
       <c r="G722" s="99" t="s">
-        <v>1902</v>
+        <v>176</v>
       </c>
       <c r="H722" s="111"/>
       <c r="J722" s="99" t="s">
         <v>1441</v>
       </c>
       <c r="K722" s="99" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="M722" s="99">
         <v>-31</v>
@@ -61774,16 +61770,16 @@
         <v>0</v>
       </c>
       <c r="P722" s="99" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="Q722" s="99">
         <v>19800</v>
       </c>
       <c r="R722" s="99" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="S722" s="88" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="X722" s="99" t="s">
         <v>478</v>
@@ -61824,14 +61820,14 @@
         <v>1</v>
       </c>
       <c r="G723" s="99" t="s">
-        <v>1902</v>
+        <v>176</v>
       </c>
       <c r="H723" s="111"/>
       <c r="J723" s="99" t="s">
         <v>1441</v>
       </c>
       <c r="K723" s="99" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="M723" s="99">
         <v>-31</v>
@@ -61843,16 +61839,16 @@
         <v>0</v>
       </c>
       <c r="P723" s="99" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="Q723" s="99">
         <v>49800</v>
       </c>
       <c r="R723" s="99" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="S723" s="88" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="X723" s="99" t="s">
         <v>478</v>
@@ -61893,14 +61889,14 @@
         <v>1</v>
       </c>
       <c r="G724" s="99" t="s">
-        <v>1902</v>
+        <v>176</v>
       </c>
       <c r="H724" s="111"/>
       <c r="J724" s="99" t="s">
         <v>1441</v>
       </c>
       <c r="K724" s="99" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="M724" s="99">
         <v>-31</v>
@@ -61912,19 +61908,19 @@
         <v>0</v>
       </c>
       <c r="P724" s="99" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="Q724" s="99">
         <v>79400</v>
       </c>
       <c r="R724" s="100" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="S724" s="88" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="X724" s="99" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="Y724" s="99">
         <v>99999999</v>
@@ -61962,7 +61958,7 @@
         <v>1</v>
       </c>
       <c r="G725" s="35" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="M725" s="35">
         <v>-31</v>
@@ -61974,13 +61970,13 @@
         <v>0</v>
       </c>
       <c r="P725" s="35" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="Q725" s="35">
         <v>3000</v>
       </c>
       <c r="X725" s="35" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="Y725" s="35">
         <v>99999999</v>
@@ -62018,16 +62014,16 @@
         <v>1</v>
       </c>
       <c r="G726" s="35" t="s">
+        <v>1955</v>
+      </c>
+      <c r="H726" s="112" t="s">
         <v>1956</v>
-      </c>
-      <c r="H726" s="112" t="s">
-        <v>1957</v>
       </c>
       <c r="J726" s="21" t="s">
         <v>1545</v>
       </c>
       <c r="K726" s="35" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="M726" s="35">
         <v>-31</v>
@@ -62039,19 +62035,19 @@
         <v>0</v>
       </c>
       <c r="P726" s="35" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="Q726" s="35">
         <v>1800</v>
       </c>
       <c r="R726" s="35" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="S726" s="36" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="X726" s="35" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="Y726" s="35">
         <v>99999999</v>
@@ -62089,14 +62085,14 @@
         <v>1</v>
       </c>
       <c r="G727" s="35" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="H727" s="112"/>
       <c r="J727" s="21" t="s">
         <v>1545</v>
       </c>
       <c r="K727" s="35" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="M727" s="35">
         <v>-31</v>
@@ -62108,19 +62104,19 @@
         <v>0</v>
       </c>
       <c r="P727" s="35" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="Q727" s="35">
         <v>3000</v>
       </c>
       <c r="R727" s="35" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="S727" s="36" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="X727" s="35" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="Y727" s="35">
         <v>99999999</v>
@@ -62158,14 +62154,14 @@
         <v>1</v>
       </c>
       <c r="G728" s="35" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="H728" s="112"/>
       <c r="J728" s="21" t="s">
         <v>1545</v>
       </c>
       <c r="K728" s="35" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="M728" s="35">
         <v>-31</v>
@@ -62177,16 +62173,16 @@
         <v>0</v>
       </c>
       <c r="P728" s="35" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="Q728" s="35">
         <v>4800</v>
       </c>
       <c r="R728" s="35" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="S728" s="36" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="X728" s="35" t="s">
         <v>478</v>
@@ -62227,14 +62223,14 @@
         <v>1</v>
       </c>
       <c r="G729" s="35" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="H729" s="112"/>
       <c r="J729" s="21" t="s">
         <v>1545</v>
       </c>
       <c r="K729" s="35" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="M729" s="35">
         <v>-31</v>
@@ -62246,16 +62242,16 @@
         <v>0</v>
       </c>
       <c r="P729" s="35" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="Q729" s="35">
         <v>9600</v>
       </c>
       <c r="R729" s="35" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="S729" s="36" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="X729" s="35" t="s">
         <v>478</v>
@@ -62296,14 +62292,14 @@
         <v>1</v>
       </c>
       <c r="G730" s="35" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="H730" s="112"/>
       <c r="J730" s="21" t="s">
         <v>1552</v>
       </c>
       <c r="K730" s="35" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="M730" s="35">
         <v>-31</v>
@@ -62315,16 +62311,16 @@
         <v>0</v>
       </c>
       <c r="P730" s="35" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="Q730" s="35">
         <v>4800</v>
       </c>
       <c r="R730" s="35" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="S730" s="36" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="X730" s="35" t="s">
         <v>478</v>
@@ -62365,14 +62361,14 @@
         <v>1</v>
       </c>
       <c r="G731" s="35" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="H731" s="112"/>
       <c r="J731" s="21" t="s">
         <v>1552</v>
       </c>
       <c r="K731" s="35" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="M731" s="35">
         <v>-31</v>
@@ -62384,16 +62380,16 @@
         <v>0</v>
       </c>
       <c r="P731" s="35" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="Q731" s="35">
         <v>9800</v>
       </c>
       <c r="R731" s="35" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="S731" s="36" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="X731" s="35" t="s">
         <v>478</v>
@@ -62434,14 +62430,14 @@
         <v>1</v>
       </c>
       <c r="G732" s="35" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="H732" s="112"/>
       <c r="J732" s="21" t="s">
         <v>1552</v>
       </c>
       <c r="K732" s="35" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="M732" s="35">
         <v>-31</v>
@@ -62453,16 +62449,16 @@
         <v>0</v>
       </c>
       <c r="P732" s="35" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="Q732" s="35">
         <v>19800</v>
       </c>
       <c r="R732" s="35" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="S732" s="36" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="X732" s="35" t="s">
         <v>478</v>
@@ -62503,14 +62499,14 @@
         <v>1</v>
       </c>
       <c r="G733" s="35" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="H733" s="112"/>
       <c r="J733" s="21" t="s">
         <v>1552</v>
       </c>
       <c r="K733" s="35" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="M733" s="35">
         <v>-31</v>
@@ -62522,16 +62518,16 @@
         <v>0</v>
       </c>
       <c r="P733" s="35" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="Q733" s="35">
         <v>34400</v>
       </c>
       <c r="R733" s="35" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="S733" s="36" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="X733" s="35" t="s">
         <v>478</v>
@@ -62572,14 +62568,14 @@
         <v>1</v>
       </c>
       <c r="G734" s="35" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="H734" s="112"/>
       <c r="J734" s="21" t="s">
         <v>1441</v>
       </c>
       <c r="K734" s="35" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="M734" s="35">
         <v>-31</v>
@@ -62591,16 +62587,16 @@
         <v>0</v>
       </c>
       <c r="P734" s="35" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="Q734" s="35">
         <v>9800</v>
       </c>
       <c r="R734" s="35" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="S734" s="36" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="X734" s="35" t="s">
         <v>478</v>
@@ -62641,14 +62637,14 @@
         <v>1</v>
       </c>
       <c r="G735" s="35" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="H735" s="112"/>
       <c r="J735" s="21" t="s">
         <v>1441</v>
       </c>
       <c r="K735" s="35" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="M735" s="35">
         <v>-31</v>
@@ -62660,16 +62656,16 @@
         <v>0</v>
       </c>
       <c r="P735" s="35" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="Q735" s="35">
         <v>19800</v>
       </c>
       <c r="R735" s="35" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="S735" s="36" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="X735" s="35" t="s">
         <v>478</v>
@@ -62710,14 +62706,14 @@
         <v>1</v>
       </c>
       <c r="G736" s="35" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="H736" s="112"/>
       <c r="J736" s="21" t="s">
         <v>1441</v>
       </c>
       <c r="K736" s="35" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="M736" s="35">
         <v>-31</v>
@@ -62729,16 +62725,16 @@
         <v>0</v>
       </c>
       <c r="P736" s="35" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="Q736" s="35">
         <v>49800</v>
       </c>
       <c r="R736" s="35" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="S736" s="36" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="X736" s="35" t="s">
         <v>478</v>
@@ -62779,14 +62775,14 @@
         <v>1</v>
       </c>
       <c r="G737" s="35" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="H737" s="112"/>
       <c r="J737" s="21" t="s">
         <v>1441</v>
       </c>
       <c r="K737" s="35" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="M737" s="35">
         <v>-31</v>
@@ -62798,16 +62794,16 @@
         <v>0</v>
       </c>
       <c r="P737" s="35" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="Q737" s="35">
         <v>79400</v>
       </c>
       <c r="R737" s="35" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="S737" s="36" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="X737" s="35" t="s">
         <v>478</v>
@@ -62848,16 +62844,16 @@
         <v>1</v>
       </c>
       <c r="G738" s="105" t="s">
+        <v>1994</v>
+      </c>
+      <c r="H738" s="111" t="s">
         <v>1995</v>
-      </c>
-      <c r="H738" s="111" t="s">
-        <v>1996</v>
       </c>
       <c r="J738" s="105" t="s">
         <v>1538</v>
       </c>
       <c r="K738" s="105" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="M738" s="105">
         <v>-31</v>
@@ -62875,10 +62871,10 @@
         <v>600</v>
       </c>
       <c r="R738" s="105" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="S738" s="88" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="X738" s="105" t="s">
         <v>478</v>
@@ -62887,10 +62883,10 @@
         <v>99999999</v>
       </c>
       <c r="Z738" s="105">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA738" s="105">
-        <v>1637596799</v>
+        <v>1640620799</v>
       </c>
       <c r="AB738" s="105">
         <v>76</v>
@@ -62919,14 +62915,14 @@
         <v>1</v>
       </c>
       <c r="G739" s="105" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H739" s="111"/>
       <c r="J739" s="105" t="s">
         <v>1538</v>
       </c>
       <c r="K739" s="105" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="M739" s="105">
         <v>-31</v>
@@ -62944,10 +62940,10 @@
         <v>1000</v>
       </c>
       <c r="R739" s="105" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="S739" s="88" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="X739" s="105" t="s">
         <v>478</v>
@@ -62955,11 +62951,11 @@
       <c r="Y739" s="105">
         <v>99999999</v>
       </c>
-      <c r="Z739" s="105">
-        <v>1636416000</v>
-      </c>
-      <c r="AA739" s="105">
-        <v>1637596799</v>
+      <c r="Z739" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA739" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB739" s="105">
         <v>76</v>
@@ -62988,14 +62984,14 @@
         <v>1</v>
       </c>
       <c r="G740" s="105" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H740" s="111"/>
       <c r="J740" s="105" t="s">
         <v>1538</v>
       </c>
       <c r="K740" s="105" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="M740" s="105">
         <v>-31</v>
@@ -63013,10 +63009,10 @@
         <v>1800</v>
       </c>
       <c r="R740" s="105" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="S740" s="88" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="X740" s="105" t="s">
         <v>478</v>
@@ -63024,11 +63020,11 @@
       <c r="Y740" s="105">
         <v>99999999</v>
       </c>
-      <c r="Z740" s="105">
-        <v>1636416000</v>
-      </c>
-      <c r="AA740" s="106">
-        <v>1637596799</v>
+      <c r="Z740" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA740" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB740" s="105">
         <v>76</v>
@@ -63057,14 +63053,14 @@
         <v>1</v>
       </c>
       <c r="G741" s="105" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H741" s="111"/>
       <c r="J741" s="105" t="s">
         <v>1545</v>
       </c>
       <c r="K741" s="105" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="M741" s="105">
         <v>-31</v>
@@ -63082,10 +63078,10 @@
         <v>1800</v>
       </c>
       <c r="R741" s="105" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="S741" s="88" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="X741" s="105" t="s">
         <v>478</v>
@@ -63093,11 +63089,11 @@
       <c r="Y741" s="105">
         <v>99999999</v>
       </c>
-      <c r="Z741" s="105">
-        <v>1636416000</v>
-      </c>
-      <c r="AA741" s="106">
-        <v>1637596799</v>
+      <c r="Z741" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA741" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB741" s="105">
         <v>77</v>
@@ -63126,14 +63122,14 @@
         <v>1</v>
       </c>
       <c r="G742" s="105" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H742" s="111"/>
       <c r="J742" s="105" t="s">
         <v>1545</v>
       </c>
       <c r="K742" s="105" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="M742" s="105">
         <v>-31</v>
@@ -63151,10 +63147,10 @@
         <v>3000</v>
       </c>
       <c r="R742" s="105" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="S742" s="88" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="X742" s="105" t="s">
         <v>478</v>
@@ -63162,11 +63158,11 @@
       <c r="Y742" s="105">
         <v>99999999</v>
       </c>
-      <c r="Z742" s="105">
-        <v>1636416000</v>
-      </c>
-      <c r="AA742" s="106">
-        <v>1637596799</v>
+      <c r="Z742" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA742" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB742" s="105">
         <v>77</v>
@@ -63195,14 +63191,14 @@
         <v>1</v>
       </c>
       <c r="G743" s="105" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H743" s="111"/>
       <c r="J743" s="105" t="s">
         <v>1545</v>
       </c>
       <c r="K743" s="105" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="M743" s="105">
         <v>-31</v>
@@ -63220,10 +63216,10 @@
         <v>4800</v>
       </c>
       <c r="R743" s="105" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="S743" s="88" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="X743" s="105" t="s">
         <v>478</v>
@@ -63231,11 +63227,11 @@
       <c r="Y743" s="105">
         <v>99999999</v>
       </c>
-      <c r="Z743" s="105">
-        <v>1636416000</v>
-      </c>
-      <c r="AA743" s="106">
-        <v>1637596799</v>
+      <c r="Z743" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA743" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB743" s="105">
         <v>77</v>
@@ -63264,14 +63260,14 @@
         <v>1</v>
       </c>
       <c r="G744" s="105" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H744" s="111"/>
       <c r="J744" s="105" t="s">
         <v>1552</v>
       </c>
       <c r="K744" s="105" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="M744" s="105">
         <v>-31</v>
@@ -63289,10 +63285,10 @@
         <v>4800</v>
       </c>
       <c r="R744" s="105" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="S744" s="88" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="X744" s="105" t="s">
         <v>478</v>
@@ -63300,11 +63296,11 @@
       <c r="Y744" s="105">
         <v>99999999</v>
       </c>
-      <c r="Z744" s="105">
-        <v>1636416000</v>
-      </c>
-      <c r="AA744" s="106">
-        <v>1637596799</v>
+      <c r="Z744" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA744" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB744" s="105">
         <v>78</v>
@@ -63333,14 +63329,14 @@
         <v>1</v>
       </c>
       <c r="G745" s="105" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H745" s="111"/>
       <c r="J745" s="105" t="s">
         <v>1552</v>
       </c>
       <c r="K745" s="105" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="M745" s="105">
         <v>-31</v>
@@ -63358,10 +63354,10 @@
         <v>9800</v>
       </c>
       <c r="R745" s="105" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="S745" s="88" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="X745" s="105" t="s">
         <v>478</v>
@@ -63369,11 +63365,11 @@
       <c r="Y745" s="105">
         <v>99999999</v>
       </c>
-      <c r="Z745" s="105">
-        <v>1636416000</v>
-      </c>
-      <c r="AA745" s="106">
-        <v>1637596799</v>
+      <c r="Z745" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA745" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB745" s="105">
         <v>78</v>
@@ -63402,14 +63398,14 @@
         <v>1</v>
       </c>
       <c r="G746" s="105" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H746" s="111"/>
       <c r="J746" s="105" t="s">
         <v>1552</v>
       </c>
       <c r="K746" s="105" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="M746" s="105">
         <v>-31</v>
@@ -63427,10 +63423,10 @@
         <v>19800</v>
       </c>
       <c r="R746" s="105" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="S746" s="88" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="X746" s="105" t="s">
         <v>478</v>
@@ -63438,11 +63434,11 @@
       <c r="Y746" s="105">
         <v>99999999</v>
       </c>
-      <c r="Z746" s="105">
-        <v>1636416000</v>
-      </c>
-      <c r="AA746" s="106">
-        <v>1637596799</v>
+      <c r="Z746" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA746" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB746" s="105">
         <v>78</v>
@@ -63471,14 +63467,14 @@
         <v>1</v>
       </c>
       <c r="G747" s="105" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H747" s="111"/>
       <c r="J747" s="105" t="s">
         <v>1441</v>
       </c>
       <c r="K747" s="105" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="M747" s="105">
         <v>-31</v>
@@ -63496,10 +63492,10 @@
         <v>9800</v>
       </c>
       <c r="R747" s="105" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="S747" s="88" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="X747" s="105" t="s">
         <v>478</v>
@@ -63507,11 +63503,11 @@
       <c r="Y747" s="105">
         <v>99999999</v>
       </c>
-      <c r="Z747" s="105">
-        <v>1636416000</v>
-      </c>
-      <c r="AA747" s="106">
-        <v>1637596799</v>
+      <c r="Z747" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA747" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB747" s="105">
         <v>79</v>
@@ -63540,14 +63536,14 @@
         <v>1</v>
       </c>
       <c r="G748" s="105" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H748" s="111"/>
       <c r="J748" s="105" t="s">
         <v>1441</v>
       </c>
       <c r="K748" s="105" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="M748" s="105">
         <v>-31</v>
@@ -63565,10 +63561,10 @@
         <v>19800</v>
       </c>
       <c r="R748" s="105" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="S748" s="88" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="X748" s="105" t="s">
         <v>478</v>
@@ -63576,11 +63572,11 @@
       <c r="Y748" s="105">
         <v>99999999</v>
       </c>
-      <c r="Z748" s="105">
-        <v>1636416000</v>
-      </c>
-      <c r="AA748" s="106">
-        <v>1637596799</v>
+      <c r="Z748" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA748" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB748" s="105">
         <v>79</v>
@@ -63609,14 +63605,14 @@
         <v>1</v>
       </c>
       <c r="G749" s="105" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H749" s="111"/>
       <c r="J749" s="105" t="s">
         <v>1441</v>
       </c>
       <c r="K749" s="105" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="M749" s="105">
         <v>-31</v>
@@ -63634,10 +63630,10 @@
         <v>49800</v>
       </c>
       <c r="R749" s="105" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="S749" s="88" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="X749" s="105" t="s">
         <v>478</v>
@@ -63645,11 +63641,11 @@
       <c r="Y749" s="105">
         <v>99999999</v>
       </c>
-      <c r="Z749" s="105">
-        <v>1636416000</v>
-      </c>
-      <c r="AA749" s="106">
-        <v>1637596799</v>
+      <c r="Z749" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA749" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB749" s="105">
         <v>79</v>
@@ -63678,10 +63674,10 @@
         <v>1</v>
       </c>
       <c r="G750" s="35" t="s">
+        <v>2023</v>
+      </c>
+      <c r="K750" s="35" t="s">
         <v>2024</v>
-      </c>
-      <c r="K750" s="35" t="s">
-        <v>2025</v>
       </c>
       <c r="M750" s="35">
         <v>-31</v>
@@ -63693,19 +63689,19 @@
         <v>0</v>
       </c>
       <c r="P750" s="35" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="Q750" s="35">
         <v>9800</v>
       </c>
       <c r="R750" s="35" t="s">
+        <v>2026</v>
+      </c>
+      <c r="S750" s="36" t="s">
         <v>2027</v>
       </c>
-      <c r="S750" s="36" t="s">
+      <c r="X750" s="35" t="s">
         <v>2028</v>
-      </c>
-      <c r="X750" s="35" t="s">
-        <v>2029</v>
       </c>
       <c r="Y750" s="35">
         <v>99999999</v>
@@ -63743,13 +63739,13 @@
         <v>1</v>
       </c>
       <c r="G751" s="35" t="s">
+        <v>2029</v>
+      </c>
+      <c r="J751" s="35" t="s">
         <v>2030</v>
       </c>
-      <c r="J751" s="35" t="s">
+      <c r="K751" s="35" t="s">
         <v>2031</v>
-      </c>
-      <c r="K751" s="35" t="s">
-        <v>2032</v>
       </c>
       <c r="M751" s="35">
         <v>-31</v>
@@ -63761,19 +63757,19 @@
         <v>0</v>
       </c>
       <c r="P751" s="35" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="Q751" s="35">
         <v>4800</v>
       </c>
       <c r="R751" s="35" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="S751" s="36" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="X751" s="35" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="Y751" s="35">
         <v>99999999</v>
@@ -63811,13 +63807,13 @@
         <v>1</v>
       </c>
       <c r="G752" s="35" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="J752" s="35" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="K752" s="35" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="M752" s="35">
         <v>-31</v>
@@ -63829,19 +63825,19 @@
         <v>0</v>
       </c>
       <c r="P752" s="35" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="Q752" s="35">
         <v>9800</v>
       </c>
       <c r="R752" s="35" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="S752" s="36" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="X752" s="35" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="Y752" s="35">
         <v>99999999</v>
@@ -63879,13 +63875,13 @@
         <v>1</v>
       </c>
       <c r="G753" s="35" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="J753" s="35" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="K753" s="35" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="M753" s="35">
         <v>-31</v>
@@ -63897,19 +63893,19 @@
         <v>0</v>
       </c>
       <c r="P753" s="35" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="Q753" s="35">
         <v>19800</v>
       </c>
       <c r="R753" s="35" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="S753" s="36" t="s">
+        <v>2043</v>
+      </c>
+      <c r="X753" s="35" t="s">
         <v>2044</v>
-      </c>
-      <c r="X753" s="35" t="s">
-        <v>2045</v>
       </c>
       <c r="Y753" s="35">
         <v>99999999</v>
@@ -63947,13 +63943,13 @@
         <v>1</v>
       </c>
       <c r="G754" s="35" t="s">
+        <v>2048</v>
+      </c>
+      <c r="J754" s="35" t="s">
         <v>2049</v>
       </c>
-      <c r="J754" s="35" t="s">
-        <v>2050</v>
-      </c>
       <c r="K754" s="35" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="M754" s="35">
         <v>-31</v>
@@ -63971,13 +63967,13 @@
         <v>4800</v>
       </c>
       <c r="R754" s="35" t="s">
+        <v>2055</v>
+      </c>
+      <c r="S754" s="36" t="s">
         <v>2056</v>
       </c>
-      <c r="S754" s="36" t="s">
-        <v>2057</v>
-      </c>
       <c r="X754" s="35" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="Y754" s="35">
         <v>99999999</v>
@@ -64012,13 +64008,13 @@
         <v>1</v>
       </c>
       <c r="G755" s="35" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="J755" s="35" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="K755" s="35" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="M755" s="35">
         <v>-31</v>
@@ -64036,13 +64032,13 @@
         <v>9800</v>
       </c>
       <c r="R755" s="35" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="S755" s="36" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="X755" s="35" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="Y755" s="35">
         <v>99999999</v>
@@ -64077,13 +64073,13 @@
         <v>1</v>
       </c>
       <c r="G756" s="35" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="J756" s="35" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="K756" s="35" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="M756" s="35">
         <v>-31</v>
@@ -64101,13 +64097,13 @@
         <v>49800</v>
       </c>
       <c r="R756" s="35" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="S756" s="36" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="X756" s="35" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="Y756" s="35">
         <v>99999999</v>
@@ -64145,10 +64141,10 @@
         <v>1876</v>
       </c>
       <c r="J757" s="35" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="K757" s="35" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="M757" s="35">
         <v>-31</v>
@@ -64184,10 +64180,10 @@
         <v>1853</v>
       </c>
       <c r="AD757" s="35" t="s">
-        <v>2081</v>
-      </c>
-      <c r="AE757" s="108" t="s">
-        <v>2096</v>
+        <v>2080</v>
+      </c>
+      <c r="AE757" s="107" t="s">
+        <v>2095</v>
       </c>
       <c r="AI757" s="35">
         <v>1</v>
@@ -64216,10 +64212,10 @@
         <v>1876</v>
       </c>
       <c r="J758" s="35" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="K758" s="35" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="M758" s="35">
         <v>-31</v>
@@ -64231,13 +64227,13 @@
         <v>0</v>
       </c>
       <c r="P758" s="35" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="Q758" s="35">
         <v>5000</v>
       </c>
       <c r="X758" s="35" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="Y758" s="35">
         <v>99999999</v>
@@ -64252,13 +64248,13 @@
         <v>93</v>
       </c>
       <c r="AC758" s="35" t="s">
+        <v>2099</v>
+      </c>
+      <c r="AD758" s="35" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AE758" s="107" t="s">
         <v>2100</v>
-      </c>
-      <c r="AD758" s="35" t="s">
-        <v>2082</v>
-      </c>
-      <c r="AE758" s="108" t="s">
-        <v>2101</v>
       </c>
       <c r="AI758" s="35">
         <v>1</v>
@@ -64287,10 +64283,10 @@
         <v>1876</v>
       </c>
       <c r="J759" s="35" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="K759" s="35" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="M759" s="35">
         <v>-31</v>
@@ -64326,10 +64322,10 @@
         <v>1853</v>
       </c>
       <c r="AD759" s="35" t="s">
-        <v>2083</v>
-      </c>
-      <c r="AE759" s="108" t="s">
-        <v>2103</v>
+        <v>2082</v>
+      </c>
+      <c r="AE759" s="107" t="s">
+        <v>2102</v>
       </c>
       <c r="AI759" s="35">
         <v>1</v>
@@ -64358,10 +64354,10 @@
         <v>1876</v>
       </c>
       <c r="J760" s="35" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="K760" s="35" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="M760" s="35">
         <v>-31</v>
@@ -64373,13 +64369,13 @@
         <v>0</v>
       </c>
       <c r="P760" s="35" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="Q760" s="35">
         <v>19800</v>
       </c>
       <c r="X760" s="35" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="Y760" s="35">
         <v>99999999</v>
@@ -64397,10 +64393,10 @@
         <v>1853</v>
       </c>
       <c r="AD760" s="35" t="s">
-        <v>2084</v>
-      </c>
-      <c r="AE760" s="108" t="s">
-        <v>2106</v>
+        <v>2083</v>
+      </c>
+      <c r="AE760" s="107" t="s">
+        <v>2105</v>
       </c>
       <c r="AI760" s="35">
         <v>1</v>
@@ -64426,13 +64422,13 @@
         <v>1</v>
       </c>
       <c r="G761" s="35" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="J761" s="35" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="K761" s="35" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="M761" s="35">
         <v>-31</v>
@@ -64450,7 +64446,7 @@
         <v>5000</v>
       </c>
       <c r="X761" s="35" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="Y761" s="35">
         <v>99999999</v>
@@ -64468,10 +64464,10 @@
         <v>1853</v>
       </c>
       <c r="AD761" s="35" t="s">
-        <v>2082</v>
-      </c>
-      <c r="AE761" s="108" t="s">
-        <v>2101</v>
+        <v>2081</v>
+      </c>
+      <c r="AE761" s="107" t="s">
+        <v>2100</v>
       </c>
       <c r="AI761" s="35">
         <v>1</v>
@@ -64500,10 +64496,10 @@
         <v>1876</v>
       </c>
       <c r="J762" s="35" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="K762" s="35" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="M762" s="35">
         <v>-31</v>
@@ -64515,13 +64511,13 @@
         <v>0</v>
       </c>
       <c r="P762" s="35" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="Q762" s="35">
         <v>9800</v>
       </c>
       <c r="X762" s="35" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="Y762" s="35">
         <v>99999999</v>
@@ -64539,10 +64535,10 @@
         <v>1853</v>
       </c>
       <c r="AD762" s="35" t="s">
+        <v>2108</v>
+      </c>
+      <c r="AE762" s="107" t="s">
         <v>2109</v>
-      </c>
-      <c r="AE762" s="108" t="s">
-        <v>2110</v>
       </c>
       <c r="AI762" s="35">
         <v>1</v>
@@ -64571,10 +64567,10 @@
         <v>1876</v>
       </c>
       <c r="J763" s="35" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="K763" s="35" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="M763" s="35">
         <v>-31</v>
@@ -64591,9 +64587,9 @@
       <c r="Q763" s="35">
         <v>19800</v>
       </c>
-      <c r="R763" s="107"/>
+      <c r="R763" s="106"/>
       <c r="X763" s="35" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="Y763" s="35">
         <v>99999999</v>
@@ -64611,10 +64607,10 @@
         <v>1853</v>
       </c>
       <c r="AD763" s="35" t="s">
-        <v>2112</v>
-      </c>
-      <c r="AE763" s="108" t="s">
-        <v>2114</v>
+        <v>2111</v>
+      </c>
+      <c r="AE763" s="107" t="s">
+        <v>2113</v>
       </c>
       <c r="AI763" s="35">
         <v>1</v>
@@ -64643,10 +64639,10 @@
         <v>1876</v>
       </c>
       <c r="J764" s="35" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="K764" s="35" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="M764" s="35">
         <v>-31</v>
@@ -64658,14 +64654,14 @@
         <v>0</v>
       </c>
       <c r="P764" s="35" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="Q764" s="35">
         <v>29800</v>
       </c>
-      <c r="R764" s="107"/>
+      <c r="R764" s="106"/>
       <c r="X764" s="35" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="Y764" s="35">
         <v>99999999</v>
@@ -64680,13 +64676,13 @@
         <v>95</v>
       </c>
       <c r="AC764" s="35" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="AD764" s="35" t="s">
-        <v>2085</v>
-      </c>
-      <c r="AE764" s="108" t="s">
-        <v>2121</v>
+        <v>2084</v>
+      </c>
+      <c r="AE764" s="107" t="s">
+        <v>2120</v>
       </c>
       <c r="AI764" s="35">
         <v>1</v>
@@ -64715,10 +64711,10 @@
         <v>1876</v>
       </c>
       <c r="J765" s="35" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="K765" s="35" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="M765" s="35">
         <v>-31</v>
@@ -64730,13 +64726,13 @@
         <v>0</v>
       </c>
       <c r="P765" s="35" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="Q765" s="35">
         <v>9800</v>
       </c>
       <c r="X765" s="35" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="Y765" s="35">
         <v>99999999</v>
@@ -64754,10 +64750,10 @@
         <v>1853</v>
       </c>
       <c r="AD765" s="35" t="s">
-        <v>2109</v>
-      </c>
-      <c r="AE765" s="108" t="s">
-        <v>2103</v>
+        <v>2108</v>
+      </c>
+      <c r="AE765" s="107" t="s">
+        <v>2102</v>
       </c>
       <c r="AI765" s="35">
         <v>1</v>
@@ -64786,10 +64782,10 @@
         <v>1876</v>
       </c>
       <c r="J766" s="35" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="K766" s="35" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="M766" s="35">
         <v>-31</v>
@@ -64807,7 +64803,7 @@
         <v>9800</v>
       </c>
       <c r="X766" s="35" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="Y766" s="35">
         <v>99999999</v>
@@ -64822,13 +64818,13 @@
         <v>93</v>
       </c>
       <c r="AC766" s="35" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="AD766" s="35" t="s">
-        <v>2083</v>
-      </c>
-      <c r="AE766" s="108" t="s">
-        <v>2110</v>
+        <v>2082</v>
+      </c>
+      <c r="AE766" s="107" t="s">
+        <v>2109</v>
       </c>
       <c r="AI766" s="35">
         <v>1</v>
@@ -64854,13 +64850,13 @@
         <v>1</v>
       </c>
       <c r="G767" s="35" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="J767" s="35" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="K767" s="35" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="M767" s="35">
         <v>-31</v>
@@ -64872,13 +64868,13 @@
         <v>0</v>
       </c>
       <c r="P767" s="35" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="Q767" s="35">
         <v>19800</v>
       </c>
       <c r="X767" s="35" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="Y767" s="35">
         <v>99999999</v>
@@ -64893,13 +64889,13 @@
         <v>94</v>
       </c>
       <c r="AC767" s="35" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="AD767" s="35" t="s">
-        <v>2084</v>
-      </c>
-      <c r="AE767" s="108" t="s">
-        <v>2114</v>
+        <v>2083</v>
+      </c>
+      <c r="AE767" s="107" t="s">
+        <v>2113</v>
       </c>
       <c r="AI767" s="35">
         <v>1</v>
@@ -64928,10 +64924,10 @@
         <v>1876</v>
       </c>
       <c r="J768" s="35" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="K768" s="35" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="M768" s="35">
         <v>-31</v>
@@ -64949,7 +64945,7 @@
         <v>29800</v>
       </c>
       <c r="X768" s="35" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="Y768" s="35">
         <v>99999999</v>
@@ -64964,13 +64960,13 @@
         <v>95</v>
       </c>
       <c r="AC768" s="35" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="AD768" s="35" t="s">
-        <v>2120</v>
-      </c>
-      <c r="AE768" s="108" t="s">
-        <v>2122</v>
+        <v>2119</v>
+      </c>
+      <c r="AE768" s="107" t="s">
+        <v>2121</v>
       </c>
       <c r="AI768" s="35">
         <v>1</v>
@@ -64999,10 +64995,10 @@
         <v>1876</v>
       </c>
       <c r="J769" s="35" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="K769" s="35" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="M769" s="35">
         <v>-31</v>
@@ -65020,7 +65016,7 @@
         <v>19800</v>
       </c>
       <c r="X769" s="35" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="Y769" s="35">
         <v>99999999</v>
@@ -65035,13 +65031,13 @@
         <v>92</v>
       </c>
       <c r="AC769" s="35" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="AD769" s="35" t="s">
-        <v>2084</v>
-      </c>
-      <c r="AE769" s="108" t="s">
-        <v>2123</v>
+        <v>2083</v>
+      </c>
+      <c r="AE769" s="107" t="s">
+        <v>2122</v>
       </c>
       <c r="AI769" s="35">
         <v>1</v>
@@ -65070,10 +65066,10 @@
         <v>1876</v>
       </c>
       <c r="J770" s="35" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="K770" s="35" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="M770" s="35">
         <v>-31</v>
@@ -65085,13 +65081,13 @@
         <v>0</v>
       </c>
       <c r="P770" s="35" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="Q770" s="35">
         <v>19800</v>
       </c>
       <c r="X770" s="35" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="Y770" s="35">
         <v>99999999</v>
@@ -65109,10 +65105,10 @@
         <v>1853</v>
       </c>
       <c r="AD770" s="35" t="s">
-        <v>2084</v>
-      </c>
-      <c r="AE770" s="108" t="s">
-        <v>2113</v>
+        <v>2083</v>
+      </c>
+      <c r="AE770" s="107" t="s">
+        <v>2112</v>
       </c>
       <c r="AI770" s="35">
         <v>1</v>
@@ -65138,13 +65134,13 @@
         <v>1</v>
       </c>
       <c r="G771" s="35" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="J771" s="35" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="K771" s="35" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="M771" s="35">
         <v>-31</v>
@@ -65156,13 +65152,13 @@
         <v>0</v>
       </c>
       <c r="P771" s="35" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="Q771" s="35">
         <v>49800</v>
       </c>
       <c r="X771" s="35" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="Y771" s="35">
         <v>99999999</v>
@@ -65177,13 +65173,13 @@
         <v>94</v>
       </c>
       <c r="AC771" s="35" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="AD771" s="35" t="s">
+        <v>2125</v>
+      </c>
+      <c r="AE771" s="107" t="s">
         <v>2126</v>
-      </c>
-      <c r="AE771" s="108" t="s">
-        <v>2127</v>
       </c>
       <c r="AI771" s="35">
         <v>1</v>
@@ -65212,10 +65208,10 @@
         <v>1876</v>
       </c>
       <c r="J772" s="35" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="K772" s="35" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="M772" s="35">
         <v>-31</v>
@@ -65227,13 +65223,13 @@
         <v>0</v>
       </c>
       <c r="P772" s="35" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="Q772" s="35">
         <v>49800</v>
       </c>
       <c r="X772" s="35" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="Y772" s="35">
         <v>99999999</v>
@@ -65251,10 +65247,10 @@
         <v>1853</v>
       </c>
       <c r="AD772" s="35" t="s">
-        <v>2086</v>
-      </c>
-      <c r="AE772" s="108" t="s">
-        <v>2128</v>
+        <v>2085</v>
+      </c>
+      <c r="AE772" s="107" t="s">
+        <v>2127</v>
       </c>
       <c r="AI772" s="35">
         <v>1</v>
@@ -65280,13 +65276,13 @@
         <v>0</v>
       </c>
       <c r="G773" s="35" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J773" s="109" t="s">
+        <v>1538</v>
+      </c>
+      <c r="K773" s="35" t="s">
         <v>2130</v>
-      </c>
-      <c r="J773" s="110" t="s">
-        <v>1538</v>
-      </c>
-      <c r="K773" s="35" t="s">
-        <v>2131</v>
       </c>
       <c r="M773" s="35">
         <v>-31</v>
@@ -65304,13 +65300,13 @@
         <v>600</v>
       </c>
       <c r="R773" s="35" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="S773" s="36" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="X773" s="35" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="Y773" s="35">
         <v>99999999</v>
@@ -65348,13 +65344,13 @@
         <v>0</v>
       </c>
       <c r="G774" s="35" t="s">
-        <v>2130</v>
-      </c>
-      <c r="J774" s="110" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J774" s="109" t="s">
         <v>1538</v>
       </c>
       <c r="K774" s="35" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="M774" s="35">
         <v>-31</v>
@@ -65372,13 +65368,13 @@
         <v>1000</v>
       </c>
       <c r="R774" s="35" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="S774" s="36" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="X774" s="35" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="Y774" s="35">
         <v>99999999</v>
@@ -65416,13 +65412,13 @@
         <v>0</v>
       </c>
       <c r="G775" s="35" t="s">
-        <v>2130</v>
-      </c>
-      <c r="J775" s="110" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J775" s="109" t="s">
         <v>1538</v>
       </c>
       <c r="K775" s="35" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="M775" s="35">
         <v>-31</v>
@@ -65440,10 +65436,10 @@
         <v>1800</v>
       </c>
       <c r="R775" s="35" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="S775" s="36" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="X775" s="35" t="s">
         <v>478</v>
@@ -65484,13 +65480,13 @@
         <v>0</v>
       </c>
       <c r="G776" s="35" t="s">
-        <v>2130</v>
-      </c>
-      <c r="J776" s="110" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J776" s="109" t="s">
         <v>1538</v>
       </c>
       <c r="K776" s="35" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="M776" s="35">
         <v>-31</v>
@@ -65508,10 +65504,10 @@
         <v>3400</v>
       </c>
       <c r="R776" s="35" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="S776" s="36" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="X776" s="35" t="s">
         <v>478</v>
@@ -65552,13 +65548,13 @@
         <v>0</v>
       </c>
       <c r="G777" s="35" t="s">
-        <v>2130</v>
-      </c>
-      <c r="J777" s="110" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J777" s="109" t="s">
         <v>1545</v>
       </c>
       <c r="K777" s="35" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="M777" s="35">
         <v>-31</v>
@@ -65576,10 +65572,10 @@
         <v>1800</v>
       </c>
       <c r="R777" s="35" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="S777" s="36" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="X777" s="35" t="s">
         <v>478</v>
@@ -65620,13 +65616,13 @@
         <v>0</v>
       </c>
       <c r="G778" s="35" t="s">
-        <v>2130</v>
-      </c>
-      <c r="J778" s="110" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J778" s="109" t="s">
         <v>1545</v>
       </c>
       <c r="K778" s="35" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="M778" s="35">
         <v>-31</v>
@@ -65644,10 +65640,10 @@
         <v>3000</v>
       </c>
       <c r="R778" s="35" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="S778" s="36" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="X778" s="35" t="s">
         <v>478</v>
@@ -65688,13 +65684,13 @@
         <v>0</v>
       </c>
       <c r="G779" s="35" t="s">
-        <v>2130</v>
-      </c>
-      <c r="J779" s="110" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J779" s="109" t="s">
         <v>1545</v>
       </c>
       <c r="K779" s="35" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="M779" s="35">
         <v>-31</v>
@@ -65712,10 +65708,10 @@
         <v>4800</v>
       </c>
       <c r="R779" s="35" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="S779" s="36" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="X779" s="35" t="s">
         <v>478</v>
@@ -65756,13 +65752,13 @@
         <v>0</v>
       </c>
       <c r="G780" s="35" t="s">
-        <v>2130</v>
-      </c>
-      <c r="J780" s="110" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J780" s="109" t="s">
         <v>1545</v>
       </c>
       <c r="K780" s="35" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="M780" s="35">
         <v>-31</v>
@@ -65780,10 +65776,10 @@
         <v>9600</v>
       </c>
       <c r="R780" s="35" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="S780" s="36" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="X780" s="35" t="s">
         <v>478</v>
@@ -65824,13 +65820,13 @@
         <v>0</v>
       </c>
       <c r="G781" s="35" t="s">
-        <v>2130</v>
-      </c>
-      <c r="J781" s="110" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J781" s="109" t="s">
         <v>1552</v>
       </c>
       <c r="K781" s="35" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="M781" s="35">
         <v>-31</v>
@@ -65848,10 +65844,10 @@
         <v>4800</v>
       </c>
       <c r="R781" s="35" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="S781" s="36" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="X781" s="35" t="s">
         <v>478</v>
@@ -65892,13 +65888,13 @@
         <v>0</v>
       </c>
       <c r="G782" s="35" t="s">
-        <v>2130</v>
-      </c>
-      <c r="J782" s="110" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J782" s="109" t="s">
         <v>1552</v>
       </c>
       <c r="K782" s="35" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="M782" s="35">
         <v>-31</v>
@@ -65916,10 +65912,10 @@
         <v>9800</v>
       </c>
       <c r="R782" s="35" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="S782" s="36" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="X782" s="35" t="s">
         <v>478</v>
@@ -65960,13 +65956,13 @@
         <v>0</v>
       </c>
       <c r="G783" s="35" t="s">
-        <v>2130</v>
-      </c>
-      <c r="J783" s="110" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J783" s="109" t="s">
         <v>1552</v>
       </c>
       <c r="K783" s="35" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="M783" s="35">
         <v>-31</v>
@@ -65984,10 +65980,10 @@
         <v>19800</v>
       </c>
       <c r="R783" s="35" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="S783" s="36" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="X783" s="35" t="s">
         <v>478</v>
@@ -66028,13 +66024,13 @@
         <v>0</v>
       </c>
       <c r="G784" s="35" t="s">
-        <v>2130</v>
-      </c>
-      <c r="J784" s="110" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J784" s="109" t="s">
         <v>1552</v>
       </c>
       <c r="K784" s="35" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="M784" s="35">
         <v>-31</v>
@@ -66052,10 +66048,10 @@
         <v>34400</v>
       </c>
       <c r="R784" s="35" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="S784" s="36" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="X784" s="35" t="s">
         <v>478</v>
@@ -66096,13 +66092,13 @@
         <v>0</v>
       </c>
       <c r="G785" s="35" t="s">
-        <v>2130</v>
-      </c>
-      <c r="J785" s="110" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J785" s="109" t="s">
         <v>1441</v>
       </c>
       <c r="K785" s="35" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="M785" s="35">
         <v>-31</v>
@@ -66120,10 +66116,10 @@
         <v>9800</v>
       </c>
       <c r="R785" s="35" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="S785" s="36" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="X785" s="35" t="s">
         <v>478</v>
@@ -66164,13 +66160,13 @@
         <v>0</v>
       </c>
       <c r="G786" s="35" t="s">
-        <v>2130</v>
-      </c>
-      <c r="J786" s="110" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J786" s="109" t="s">
         <v>1441</v>
       </c>
       <c r="K786" s="35" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="M786" s="35">
         <v>-31</v>
@@ -66188,10 +66184,10 @@
         <v>19800</v>
       </c>
       <c r="R786" s="35" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="S786" s="36" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="X786" s="35" t="s">
         <v>478</v>
@@ -66232,13 +66228,13 @@
         <v>0</v>
       </c>
       <c r="G787" s="35" t="s">
-        <v>2130</v>
-      </c>
-      <c r="J787" s="110" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J787" s="109" t="s">
         <v>1441</v>
       </c>
       <c r="K787" s="35" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="M787" s="35">
         <v>-31</v>
@@ -66256,10 +66252,10 @@
         <v>49800</v>
       </c>
       <c r="R787" s="35" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="S787" s="36" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="X787" s="35" t="s">
         <v>478</v>
@@ -66300,13 +66296,13 @@
         <v>0</v>
       </c>
       <c r="G788" s="35" t="s">
-        <v>2130</v>
-      </c>
-      <c r="J788" s="110" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J788" s="109" t="s">
         <v>1441</v>
       </c>
       <c r="K788" s="35" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="M788" s="35">
         <v>-31</v>
@@ -66324,10 +66320,10 @@
         <v>79400</v>
       </c>
       <c r="R788" s="35" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="S788" s="36" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="X788" s="35" t="s">
         <v>478</v>
@@ -67521,7 +67517,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="102" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -67619,7 +67615,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="103" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -67633,7 +67629,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="103" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -67647,7 +67643,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="103" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -67661,7 +67657,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="103" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -67675,7 +67671,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="103" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -67689,7 +67685,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="103" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -67703,7 +67699,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="103" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -67717,7 +67713,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="103" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -67731,7 +67727,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="103" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -67745,7 +67741,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="103" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C96">
         <v>1</v>

--- a/config_12.21/shoping_config.xlsx
+++ b/config_12.21/shoping_config.xlsx
@@ -8996,13 +8996,13 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -14930,7 +14930,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="Z704" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB717" sqref="AB717"/>
+      <selection pane="bottomRight" activeCell="AB721" sqref="AB721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -58334,7 +58334,7 @@
       <c r="Y672" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z672" s="108">
+      <c r="Z672" s="107">
         <v>1638835200</v>
       </c>
       <c r="AA672" s="94">
@@ -58405,10 +58405,10 @@
       <c r="Y673" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z673" s="108">
+      <c r="Z673" s="107">
         <v>1638835200</v>
       </c>
-      <c r="AA673" s="108">
+      <c r="AA673" s="107">
         <v>1639411199</v>
       </c>
       <c r="AB673" s="101">
@@ -58476,10 +58476,10 @@
       <c r="Y674" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z674" s="108">
+      <c r="Z674" s="107">
         <v>1638835200</v>
       </c>
-      <c r="AA674" s="108">
+      <c r="AA674" s="107">
         <v>1639411199</v>
       </c>
       <c r="AB674" s="101">
@@ -58547,10 +58547,10 @@
       <c r="Y675" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z675" s="108">
+      <c r="Z675" s="107">
         <v>1638835200</v>
       </c>
-      <c r="AA675" s="108">
+      <c r="AA675" s="107">
         <v>1639411199</v>
       </c>
       <c r="AB675" s="101">
@@ -58618,10 +58618,10 @@
       <c r="Y676" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z676" s="108">
+      <c r="Z676" s="107">
         <v>1638835200</v>
       </c>
-      <c r="AA676" s="108">
+      <c r="AA676" s="107">
         <v>1639411199</v>
       </c>
       <c r="AB676" s="101">
@@ -58689,10 +58689,10 @@
       <c r="Y677" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z677" s="108">
+      <c r="Z677" s="107">
         <v>1638835200</v>
       </c>
-      <c r="AA677" s="108">
+      <c r="AA677" s="107">
         <v>1639411199</v>
       </c>
       <c r="AB677" s="101">
@@ -58760,10 +58760,10 @@
       <c r="Y678" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z678" s="108">
+      <c r="Z678" s="107">
         <v>1638835200</v>
       </c>
-      <c r="AA678" s="108">
+      <c r="AA678" s="107">
         <v>1639411199</v>
       </c>
       <c r="AB678" s="101">
@@ -58831,10 +58831,10 @@
       <c r="Y679" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z679" s="108">
+      <c r="Z679" s="107">
         <v>1638835200</v>
       </c>
-      <c r="AA679" s="108">
+      <c r="AA679" s="107">
         <v>1639411199</v>
       </c>
       <c r="AB679" s="101">
@@ -58902,10 +58902,10 @@
       <c r="Y680" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z680" s="108">
+      <c r="Z680" s="107">
         <v>1638835200</v>
       </c>
-      <c r="AA680" s="108">
+      <c r="AA680" s="107">
         <v>1639411199</v>
       </c>
       <c r="AB680" s="101">
@@ -58973,10 +58973,10 @@
       <c r="Y681" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z681" s="108">
+      <c r="Z681" s="107">
         <v>1638835200</v>
       </c>
-      <c r="AA681" s="108">
+      <c r="AA681" s="107">
         <v>1639411199</v>
       </c>
       <c r="AB681" s="101">
@@ -59044,10 +59044,10 @@
       <c r="Y682" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z682" s="108">
+      <c r="Z682" s="107">
         <v>1638835200</v>
       </c>
-      <c r="AA682" s="108">
+      <c r="AA682" s="107">
         <v>1639411199</v>
       </c>
       <c r="AB682" s="101">
@@ -60891,10 +60891,10 @@
         <v>99999999</v>
       </c>
       <c r="Z709" s="99">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA709" s="99">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB709" s="99">
         <v>80</v>
@@ -60960,10 +60960,10 @@
         <v>99999999</v>
       </c>
       <c r="Z710" s="99">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA710" s="99">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB710" s="99">
         <v>80</v>
@@ -61028,11 +61028,11 @@
       <c r="Y711" s="99">
         <v>99999999</v>
       </c>
-      <c r="Z711" s="104">
-        <v>1636416000</v>
-      </c>
-      <c r="AA711" s="104">
-        <v>1636991999</v>
+      <c r="Z711" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA711" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB711" s="99">
         <v>80</v>
@@ -61097,11 +61097,11 @@
       <c r="Y712" s="99">
         <v>99999999</v>
       </c>
-      <c r="Z712" s="104">
-        <v>1636416000</v>
-      </c>
-      <c r="AA712" s="104">
-        <v>1636991999</v>
+      <c r="Z712" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA712" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB712" s="99">
         <v>80</v>
@@ -61166,11 +61166,11 @@
       <c r="Y713" s="99">
         <v>99999999</v>
       </c>
-      <c r="Z713" s="104">
-        <v>1636416000</v>
-      </c>
-      <c r="AA713" s="104">
-        <v>1636991999</v>
+      <c r="Z713" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA713" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB713" s="99">
         <v>81</v>
@@ -61235,11 +61235,11 @@
       <c r="Y714" s="99">
         <v>99999999</v>
       </c>
-      <c r="Z714" s="104">
-        <v>1636416000</v>
-      </c>
-      <c r="AA714" s="104">
-        <v>1636991999</v>
+      <c r="Z714" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA714" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB714" s="99">
         <v>81</v>
@@ -61304,11 +61304,11 @@
       <c r="Y715" s="99">
         <v>99999999</v>
       </c>
-      <c r="Z715" s="104">
-        <v>1636416000</v>
-      </c>
-      <c r="AA715" s="104">
-        <v>1636991999</v>
+      <c r="Z715" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA715" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB715" s="99">
         <v>81</v>
@@ -61373,11 +61373,11 @@
       <c r="Y716" s="99">
         <v>99999999</v>
       </c>
-      <c r="Z716" s="104">
-        <v>1636416000</v>
-      </c>
-      <c r="AA716" s="104">
-        <v>1636991999</v>
+      <c r="Z716" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA716" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB716" s="99">
         <v>81</v>
@@ -61442,11 +61442,11 @@
       <c r="Y717" s="99">
         <v>99999999</v>
       </c>
-      <c r="Z717" s="104">
-        <v>1636416000</v>
-      </c>
-      <c r="AA717" s="104">
-        <v>1636991999</v>
+      <c r="Z717" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA717" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB717" s="99">
         <v>82</v>
@@ -61511,11 +61511,11 @@
       <c r="Y718" s="99">
         <v>99999999</v>
       </c>
-      <c r="Z718" s="104">
-        <v>1636416000</v>
-      </c>
-      <c r="AA718" s="104">
-        <v>1636991999</v>
+      <c r="Z718" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA718" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB718" s="99">
         <v>82</v>
@@ -61580,11 +61580,11 @@
       <c r="Y719" s="99">
         <v>99999999</v>
       </c>
-      <c r="Z719" s="104">
-        <v>1636416000</v>
-      </c>
-      <c r="AA719" s="104">
-        <v>1636991999</v>
+      <c r="Z719" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA719" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB719" s="99">
         <v>82</v>
@@ -61649,11 +61649,11 @@
       <c r="Y720" s="99">
         <v>99999999</v>
       </c>
-      <c r="Z720" s="104">
-        <v>1636416000</v>
-      </c>
-      <c r="AA720" s="104">
-        <v>1636991999</v>
+      <c r="Z720" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA720" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB720" s="99">
         <v>82</v>
@@ -61718,11 +61718,11 @@
       <c r="Y721" s="99">
         <v>99999999</v>
       </c>
-      <c r="Z721" s="104">
-        <v>1636416000</v>
-      </c>
-      <c r="AA721" s="104">
-        <v>1636991999</v>
+      <c r="Z721" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA721" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB721" s="99">
         <v>83</v>
@@ -61787,11 +61787,11 @@
       <c r="Y722" s="99">
         <v>99999999</v>
       </c>
-      <c r="Z722" s="104">
-        <v>1636416000</v>
-      </c>
-      <c r="AA722" s="104">
-        <v>1636991999</v>
+      <c r="Z722" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA722" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB722" s="99">
         <v>83</v>
@@ -61856,11 +61856,11 @@
       <c r="Y723" s="99">
         <v>99999999</v>
       </c>
-      <c r="Z723" s="104">
-        <v>1636416000</v>
-      </c>
-      <c r="AA723" s="104">
-        <v>1636991999</v>
+      <c r="Z723" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA723" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB723" s="99">
         <v>83</v>
@@ -61925,11 +61925,11 @@
       <c r="Y724" s="99">
         <v>99999999</v>
       </c>
-      <c r="Z724" s="104">
-        <v>1636416000</v>
-      </c>
-      <c r="AA724" s="104">
-        <v>1636991999</v>
+      <c r="Z724" s="110">
+        <v>1640044800</v>
+      </c>
+      <c r="AA724" s="110">
+        <v>1640620799</v>
       </c>
       <c r="AB724" s="99">
         <v>83</v>
@@ -62833,833 +62833,833 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:40" s="105" customFormat="1">
-      <c r="A738" s="105">
+    <row r="738" spans="1:40" s="104" customFormat="1">
+      <c r="A738" s="104">
         <v>737</v>
       </c>
-      <c r="B738" s="105">
+      <c r="B738" s="104">
         <v>10654</v>
       </c>
-      <c r="F738" s="105">
-        <v>1</v>
-      </c>
-      <c r="G738" s="105" t="s">
+      <c r="F738" s="104">
+        <v>1</v>
+      </c>
+      <c r="G738" s="104" t="s">
         <v>1994</v>
       </c>
       <c r="H738" s="111" t="s">
         <v>1995</v>
       </c>
-      <c r="J738" s="105" t="s">
+      <c r="J738" s="104" t="s">
         <v>1538</v>
       </c>
-      <c r="K738" s="105" t="s">
+      <c r="K738" s="104" t="s">
         <v>1996</v>
       </c>
-      <c r="M738" s="105">
+      <c r="M738" s="104">
         <v>-31</v>
       </c>
-      <c r="N738" s="105">
-        <v>0</v>
-      </c>
-      <c r="O738" s="105">
-        <v>0</v>
-      </c>
-      <c r="P738" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q738" s="105">
+      <c r="N738" s="104">
+        <v>0</v>
+      </c>
+      <c r="O738" s="104">
+        <v>0</v>
+      </c>
+      <c r="P738" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q738" s="104">
         <v>600</v>
       </c>
-      <c r="R738" s="105" t="s">
+      <c r="R738" s="104" t="s">
         <v>2007</v>
       </c>
       <c r="S738" s="88" t="s">
         <v>2011</v>
       </c>
-      <c r="X738" s="105" t="s">
+      <c r="X738" s="104" t="s">
         <v>478</v>
       </c>
-      <c r="Y738" s="105">
+      <c r="Y738" s="104">
         <v>99999999</v>
       </c>
-      <c r="Z738" s="105">
+      <c r="Z738" s="104">
         <v>1640044800</v>
       </c>
-      <c r="AA738" s="105">
+      <c r="AA738" s="104">
         <v>1640620799</v>
       </c>
-      <c r="AB738" s="105">
+      <c r="AB738" s="104">
         <v>76</v>
       </c>
-      <c r="AI738" s="105">
-        <v>1</v>
-      </c>
-      <c r="AJ738" s="105">
-        <v>1</v>
-      </c>
-      <c r="AM738" s="105">
-        <v>1</v>
-      </c>
-      <c r="AN738" s="105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="739" spans="1:40" s="105" customFormat="1">
-      <c r="A739" s="105">
+      <c r="AI738" s="104">
+        <v>1</v>
+      </c>
+      <c r="AJ738" s="104">
+        <v>1</v>
+      </c>
+      <c r="AM738" s="104">
+        <v>1</v>
+      </c>
+      <c r="AN738" s="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:40" s="104" customFormat="1">
+      <c r="A739" s="104">
         <v>738</v>
       </c>
-      <c r="B739" s="105">
+      <c r="B739" s="104">
         <v>10655</v>
       </c>
-      <c r="F739" s="105">
-        <v>1</v>
-      </c>
-      <c r="G739" s="105" t="s">
+      <c r="F739" s="104">
+        <v>1</v>
+      </c>
+      <c r="G739" s="104" t="s">
         <v>1994</v>
       </c>
       <c r="H739" s="111"/>
-      <c r="J739" s="105" t="s">
+      <c r="J739" s="104" t="s">
         <v>1538</v>
       </c>
-      <c r="K739" s="105" t="s">
+      <c r="K739" s="104" t="s">
         <v>1997</v>
       </c>
-      <c r="M739" s="105">
+      <c r="M739" s="104">
         <v>-31</v>
       </c>
-      <c r="N739" s="105">
-        <v>0</v>
-      </c>
-      <c r="O739" s="105">
-        <v>0</v>
-      </c>
-      <c r="P739" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q739" s="105">
+      <c r="N739" s="104">
+        <v>0</v>
+      </c>
+      <c r="O739" s="104">
+        <v>0</v>
+      </c>
+      <c r="P739" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q739" s="104">
         <v>1000</v>
       </c>
-      <c r="R739" s="105" t="s">
+      <c r="R739" s="104" t="s">
         <v>2007</v>
       </c>
       <c r="S739" s="88" t="s">
         <v>2012</v>
       </c>
-      <c r="X739" s="105" t="s">
+      <c r="X739" s="104" t="s">
         <v>478</v>
       </c>
-      <c r="Y739" s="105">
+      <c r="Y739" s="104">
         <v>99999999</v>
       </c>
-      <c r="Z739" s="110">
+      <c r="Z739" s="109">
         <v>1640044800</v>
       </c>
-      <c r="AA739" s="110">
+      <c r="AA739" s="109">
         <v>1640620799</v>
       </c>
-      <c r="AB739" s="105">
+      <c r="AB739" s="104">
         <v>76</v>
       </c>
-      <c r="AI739" s="105">
-        <v>1</v>
-      </c>
-      <c r="AJ739" s="105">
-        <v>1</v>
-      </c>
-      <c r="AM739" s="105">
-        <v>1</v>
-      </c>
-      <c r="AN739" s="105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="740" spans="1:40" s="105" customFormat="1">
-      <c r="A740" s="105">
+      <c r="AI739" s="104">
+        <v>1</v>
+      </c>
+      <c r="AJ739" s="104">
+        <v>1</v>
+      </c>
+      <c r="AM739" s="104">
+        <v>1</v>
+      </c>
+      <c r="AN739" s="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:40" s="104" customFormat="1">
+      <c r="A740" s="104">
         <v>739</v>
       </c>
-      <c r="B740" s="105">
+      <c r="B740" s="104">
         <v>10656</v>
       </c>
-      <c r="F740" s="105">
-        <v>1</v>
-      </c>
-      <c r="G740" s="105" t="s">
+      <c r="F740" s="104">
+        <v>1</v>
+      </c>
+      <c r="G740" s="104" t="s">
         <v>1994</v>
       </c>
       <c r="H740" s="111"/>
-      <c r="J740" s="105" t="s">
+      <c r="J740" s="104" t="s">
         <v>1538</v>
       </c>
-      <c r="K740" s="105" t="s">
+      <c r="K740" s="104" t="s">
         <v>1998</v>
       </c>
-      <c r="M740" s="105">
+      <c r="M740" s="104">
         <v>-31</v>
       </c>
-      <c r="N740" s="105">
-        <v>0</v>
-      </c>
-      <c r="O740" s="105">
-        <v>0</v>
-      </c>
-      <c r="P740" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q740" s="105">
+      <c r="N740" s="104">
+        <v>0</v>
+      </c>
+      <c r="O740" s="104">
+        <v>0</v>
+      </c>
+      <c r="P740" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q740" s="104">
         <v>1800</v>
       </c>
-      <c r="R740" s="105" t="s">
+      <c r="R740" s="104" t="s">
         <v>2007</v>
       </c>
       <c r="S740" s="88" t="s">
         <v>2013</v>
       </c>
-      <c r="X740" s="105" t="s">
+      <c r="X740" s="104" t="s">
         <v>478</v>
       </c>
-      <c r="Y740" s="105">
+      <c r="Y740" s="104">
         <v>99999999</v>
       </c>
-      <c r="Z740" s="110">
+      <c r="Z740" s="109">
         <v>1640044800</v>
       </c>
-      <c r="AA740" s="110">
+      <c r="AA740" s="109">
         <v>1640620799</v>
       </c>
-      <c r="AB740" s="105">
+      <c r="AB740" s="104">
         <v>76</v>
       </c>
-      <c r="AI740" s="105">
-        <v>1</v>
-      </c>
-      <c r="AJ740" s="105">
-        <v>1</v>
-      </c>
-      <c r="AM740" s="105">
-        <v>1</v>
-      </c>
-      <c r="AN740" s="105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="741" spans="1:40" s="105" customFormat="1">
-      <c r="A741" s="105">
+      <c r="AI740" s="104">
+        <v>1</v>
+      </c>
+      <c r="AJ740" s="104">
+        <v>1</v>
+      </c>
+      <c r="AM740" s="104">
+        <v>1</v>
+      </c>
+      <c r="AN740" s="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:40" s="104" customFormat="1">
+      <c r="A741" s="104">
         <v>740</v>
       </c>
-      <c r="B741" s="105">
+      <c r="B741" s="104">
         <v>10657</v>
       </c>
-      <c r="F741" s="105">
-        <v>1</v>
-      </c>
-      <c r="G741" s="105" t="s">
+      <c r="F741" s="104">
+        <v>1</v>
+      </c>
+      <c r="G741" s="104" t="s">
         <v>1994</v>
       </c>
       <c r="H741" s="111"/>
-      <c r="J741" s="105" t="s">
+      <c r="J741" s="104" t="s">
         <v>1545</v>
       </c>
-      <c r="K741" s="105" t="s">
+      <c r="K741" s="104" t="s">
         <v>1999</v>
       </c>
-      <c r="M741" s="105">
+      <c r="M741" s="104">
         <v>-31</v>
       </c>
-      <c r="N741" s="105">
-        <v>0</v>
-      </c>
-      <c r="O741" s="105">
-        <v>0</v>
-      </c>
-      <c r="P741" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q741" s="105">
+      <c r="N741" s="104">
+        <v>0</v>
+      </c>
+      <c r="O741" s="104">
+        <v>0</v>
+      </c>
+      <c r="P741" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q741" s="104">
         <v>1800</v>
       </c>
-      <c r="R741" s="105" t="s">
+      <c r="R741" s="104" t="s">
         <v>2007</v>
       </c>
       <c r="S741" s="88" t="s">
         <v>2014</v>
       </c>
-      <c r="X741" s="105" t="s">
+      <c r="X741" s="104" t="s">
         <v>478</v>
       </c>
-      <c r="Y741" s="105">
+      <c r="Y741" s="104">
         <v>99999999</v>
       </c>
-      <c r="Z741" s="110">
+      <c r="Z741" s="109">
         <v>1640044800</v>
       </c>
-      <c r="AA741" s="110">
+      <c r="AA741" s="109">
         <v>1640620799</v>
       </c>
-      <c r="AB741" s="105">
+      <c r="AB741" s="104">
         <v>77</v>
       </c>
-      <c r="AI741" s="105">
-        <v>1</v>
-      </c>
-      <c r="AJ741" s="105">
-        <v>1</v>
-      </c>
-      <c r="AM741" s="105">
-        <v>1</v>
-      </c>
-      <c r="AN741" s="105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="742" spans="1:40" s="105" customFormat="1">
-      <c r="A742" s="105">
+      <c r="AI741" s="104">
+        <v>1</v>
+      </c>
+      <c r="AJ741" s="104">
+        <v>1</v>
+      </c>
+      <c r="AM741" s="104">
+        <v>1</v>
+      </c>
+      <c r="AN741" s="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:40" s="104" customFormat="1">
+      <c r="A742" s="104">
         <v>741</v>
       </c>
-      <c r="B742" s="105">
+      <c r="B742" s="104">
         <v>10658</v>
       </c>
-      <c r="F742" s="105">
-        <v>1</v>
-      </c>
-      <c r="G742" s="105" t="s">
+      <c r="F742" s="104">
+        <v>1</v>
+      </c>
+      <c r="G742" s="104" t="s">
         <v>1994</v>
       </c>
       <c r="H742" s="111"/>
-      <c r="J742" s="105" t="s">
+      <c r="J742" s="104" t="s">
         <v>1545</v>
       </c>
-      <c r="K742" s="105" t="s">
+      <c r="K742" s="104" t="s">
         <v>2000</v>
       </c>
-      <c r="M742" s="105">
+      <c r="M742" s="104">
         <v>-31</v>
       </c>
-      <c r="N742" s="105">
-        <v>0</v>
-      </c>
-      <c r="O742" s="105">
-        <v>0</v>
-      </c>
-      <c r="P742" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q742" s="105">
+      <c r="N742" s="104">
+        <v>0</v>
+      </c>
+      <c r="O742" s="104">
+        <v>0</v>
+      </c>
+      <c r="P742" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q742" s="104">
         <v>3000</v>
       </c>
-      <c r="R742" s="105" t="s">
+      <c r="R742" s="104" t="s">
         <v>2007</v>
       </c>
       <c r="S742" s="88" t="s">
         <v>2015</v>
       </c>
-      <c r="X742" s="105" t="s">
+      <c r="X742" s="104" t="s">
         <v>478</v>
       </c>
-      <c r="Y742" s="105">
+      <c r="Y742" s="104">
         <v>99999999</v>
       </c>
-      <c r="Z742" s="110">
+      <c r="Z742" s="109">
         <v>1640044800</v>
       </c>
-      <c r="AA742" s="110">
+      <c r="AA742" s="109">
         <v>1640620799</v>
       </c>
-      <c r="AB742" s="105">
+      <c r="AB742" s="104">
         <v>77</v>
       </c>
-      <c r="AI742" s="105">
-        <v>1</v>
-      </c>
-      <c r="AJ742" s="105">
-        <v>1</v>
-      </c>
-      <c r="AM742" s="105">
-        <v>1</v>
-      </c>
-      <c r="AN742" s="105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="743" spans="1:40" s="105" customFormat="1">
-      <c r="A743" s="105">
+      <c r="AI742" s="104">
+        <v>1</v>
+      </c>
+      <c r="AJ742" s="104">
+        <v>1</v>
+      </c>
+      <c r="AM742" s="104">
+        <v>1</v>
+      </c>
+      <c r="AN742" s="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:40" s="104" customFormat="1">
+      <c r="A743" s="104">
         <v>742</v>
       </c>
-      <c r="B743" s="105">
+      <c r="B743" s="104">
         <v>10659</v>
       </c>
-      <c r="F743" s="105">
-        <v>1</v>
-      </c>
-      <c r="G743" s="105" t="s">
+      <c r="F743" s="104">
+        <v>1</v>
+      </c>
+      <c r="G743" s="104" t="s">
         <v>1994</v>
       </c>
       <c r="H743" s="111"/>
-      <c r="J743" s="105" t="s">
+      <c r="J743" s="104" t="s">
         <v>1545</v>
       </c>
-      <c r="K743" s="105" t="s">
+      <c r="K743" s="104" t="s">
         <v>2001</v>
       </c>
-      <c r="M743" s="105">
+      <c r="M743" s="104">
         <v>-31</v>
       </c>
-      <c r="N743" s="105">
-        <v>0</v>
-      </c>
-      <c r="O743" s="105">
-        <v>0</v>
-      </c>
-      <c r="P743" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q743" s="105">
+      <c r="N743" s="104">
+        <v>0</v>
+      </c>
+      <c r="O743" s="104">
+        <v>0</v>
+      </c>
+      <c r="P743" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q743" s="104">
         <v>4800</v>
       </c>
-      <c r="R743" s="105" t="s">
+      <c r="R743" s="104" t="s">
         <v>2008</v>
       </c>
       <c r="S743" s="88" t="s">
         <v>2016</v>
       </c>
-      <c r="X743" s="105" t="s">
+      <c r="X743" s="104" t="s">
         <v>478</v>
       </c>
-      <c r="Y743" s="105">
+      <c r="Y743" s="104">
         <v>99999999</v>
       </c>
-      <c r="Z743" s="110">
+      <c r="Z743" s="109">
         <v>1640044800</v>
       </c>
-      <c r="AA743" s="110">
+      <c r="AA743" s="109">
         <v>1640620799</v>
       </c>
-      <c r="AB743" s="105">
+      <c r="AB743" s="104">
         <v>77</v>
       </c>
-      <c r="AI743" s="105">
-        <v>1</v>
-      </c>
-      <c r="AJ743" s="105">
-        <v>1</v>
-      </c>
-      <c r="AM743" s="105">
-        <v>1</v>
-      </c>
-      <c r="AN743" s="105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="744" spans="1:40" s="105" customFormat="1">
-      <c r="A744" s="105">
+      <c r="AI743" s="104">
+        <v>1</v>
+      </c>
+      <c r="AJ743" s="104">
+        <v>1</v>
+      </c>
+      <c r="AM743" s="104">
+        <v>1</v>
+      </c>
+      <c r="AN743" s="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:40" s="104" customFormat="1">
+      <c r="A744" s="104">
         <v>743</v>
       </c>
-      <c r="B744" s="105">
+      <c r="B744" s="104">
         <v>10660</v>
       </c>
-      <c r="F744" s="105">
-        <v>1</v>
-      </c>
-      <c r="G744" s="105" t="s">
+      <c r="F744" s="104">
+        <v>1</v>
+      </c>
+      <c r="G744" s="104" t="s">
         <v>1994</v>
       </c>
       <c r="H744" s="111"/>
-      <c r="J744" s="105" t="s">
+      <c r="J744" s="104" t="s">
         <v>1552</v>
       </c>
-      <c r="K744" s="105" t="s">
+      <c r="K744" s="104" t="s">
         <v>2002</v>
       </c>
-      <c r="M744" s="105">
+      <c r="M744" s="104">
         <v>-31</v>
       </c>
-      <c r="N744" s="105">
-        <v>0</v>
-      </c>
-      <c r="O744" s="105">
-        <v>0</v>
-      </c>
-      <c r="P744" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q744" s="105">
+      <c r="N744" s="104">
+        <v>0</v>
+      </c>
+      <c r="O744" s="104">
+        <v>0</v>
+      </c>
+      <c r="P744" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q744" s="104">
         <v>4800</v>
       </c>
-      <c r="R744" s="105" t="s">
+      <c r="R744" s="104" t="s">
         <v>2010</v>
       </c>
       <c r="S744" s="88" t="s">
         <v>2017</v>
       </c>
-      <c r="X744" s="105" t="s">
+      <c r="X744" s="104" t="s">
         <v>478</v>
       </c>
-      <c r="Y744" s="105">
+      <c r="Y744" s="104">
         <v>99999999</v>
       </c>
-      <c r="Z744" s="110">
+      <c r="Z744" s="109">
         <v>1640044800</v>
       </c>
-      <c r="AA744" s="110">
+      <c r="AA744" s="109">
         <v>1640620799</v>
       </c>
-      <c r="AB744" s="105">
+      <c r="AB744" s="104">
         <v>78</v>
       </c>
-      <c r="AI744" s="105">
-        <v>1</v>
-      </c>
-      <c r="AJ744" s="105">
-        <v>1</v>
-      </c>
-      <c r="AM744" s="105">
-        <v>1</v>
-      </c>
-      <c r="AN744" s="105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="745" spans="1:40" s="105" customFormat="1">
-      <c r="A745" s="105">
+      <c r="AI744" s="104">
+        <v>1</v>
+      </c>
+      <c r="AJ744" s="104">
+        <v>1</v>
+      </c>
+      <c r="AM744" s="104">
+        <v>1</v>
+      </c>
+      <c r="AN744" s="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:40" s="104" customFormat="1">
+      <c r="A745" s="104">
         <v>744</v>
       </c>
-      <c r="B745" s="105">
+      <c r="B745" s="104">
         <v>10661</v>
       </c>
-      <c r="F745" s="105">
-        <v>1</v>
-      </c>
-      <c r="G745" s="105" t="s">
+      <c r="F745" s="104">
+        <v>1</v>
+      </c>
+      <c r="G745" s="104" t="s">
         <v>1994</v>
       </c>
       <c r="H745" s="111"/>
-      <c r="J745" s="105" t="s">
+      <c r="J745" s="104" t="s">
         <v>1552</v>
       </c>
-      <c r="K745" s="105" t="s">
+      <c r="K745" s="104" t="s">
         <v>2003</v>
       </c>
-      <c r="M745" s="105">
+      <c r="M745" s="104">
         <v>-31</v>
       </c>
-      <c r="N745" s="105">
-        <v>0</v>
-      </c>
-      <c r="O745" s="105">
-        <v>0</v>
-      </c>
-      <c r="P745" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q745" s="105">
+      <c r="N745" s="104">
+        <v>0</v>
+      </c>
+      <c r="O745" s="104">
+        <v>0</v>
+      </c>
+      <c r="P745" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q745" s="104">
         <v>9800</v>
       </c>
-      <c r="R745" s="105" t="s">
+      <c r="R745" s="104" t="s">
         <v>2010</v>
       </c>
       <c r="S745" s="88" t="s">
         <v>2018</v>
       </c>
-      <c r="X745" s="105" t="s">
+      <c r="X745" s="104" t="s">
         <v>478</v>
       </c>
-      <c r="Y745" s="105">
+      <c r="Y745" s="104">
         <v>99999999</v>
       </c>
-      <c r="Z745" s="110">
+      <c r="Z745" s="109">
         <v>1640044800</v>
       </c>
-      <c r="AA745" s="110">
+      <c r="AA745" s="109">
         <v>1640620799</v>
       </c>
-      <c r="AB745" s="105">
+      <c r="AB745" s="104">
         <v>78</v>
       </c>
-      <c r="AI745" s="105">
-        <v>1</v>
-      </c>
-      <c r="AJ745" s="105">
-        <v>1</v>
-      </c>
-      <c r="AM745" s="105">
-        <v>1</v>
-      </c>
-      <c r="AN745" s="105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="746" spans="1:40" s="105" customFormat="1">
-      <c r="A746" s="105">
+      <c r="AI745" s="104">
+        <v>1</v>
+      </c>
+      <c r="AJ745" s="104">
+        <v>1</v>
+      </c>
+      <c r="AM745" s="104">
+        <v>1</v>
+      </c>
+      <c r="AN745" s="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:40" s="104" customFormat="1">
+      <c r="A746" s="104">
         <v>745</v>
       </c>
-      <c r="B746" s="105">
+      <c r="B746" s="104">
         <v>10662</v>
       </c>
-      <c r="F746" s="105">
-        <v>1</v>
-      </c>
-      <c r="G746" s="105" t="s">
+      <c r="F746" s="104">
+        <v>1</v>
+      </c>
+      <c r="G746" s="104" t="s">
         <v>1994</v>
       </c>
       <c r="H746" s="111"/>
-      <c r="J746" s="105" t="s">
+      <c r="J746" s="104" t="s">
         <v>1552</v>
       </c>
-      <c r="K746" s="105" t="s">
+      <c r="K746" s="104" t="s">
         <v>2004</v>
       </c>
-      <c r="M746" s="105">
+      <c r="M746" s="104">
         <v>-31</v>
       </c>
-      <c r="N746" s="105">
-        <v>0</v>
-      </c>
-      <c r="O746" s="105">
-        <v>0</v>
-      </c>
-      <c r="P746" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q746" s="105">
+      <c r="N746" s="104">
+        <v>0</v>
+      </c>
+      <c r="O746" s="104">
+        <v>0</v>
+      </c>
+      <c r="P746" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q746" s="104">
         <v>19800</v>
       </c>
-      <c r="R746" s="105" t="s">
+      <c r="R746" s="104" t="s">
         <v>2009</v>
       </c>
       <c r="S746" s="88" t="s">
         <v>2019</v>
       </c>
-      <c r="X746" s="105" t="s">
+      <c r="X746" s="104" t="s">
         <v>478</v>
       </c>
-      <c r="Y746" s="105">
+      <c r="Y746" s="104">
         <v>99999999</v>
       </c>
-      <c r="Z746" s="110">
+      <c r="Z746" s="109">
         <v>1640044800</v>
       </c>
-      <c r="AA746" s="110">
+      <c r="AA746" s="109">
         <v>1640620799</v>
       </c>
-      <c r="AB746" s="105">
+      <c r="AB746" s="104">
         <v>78</v>
       </c>
-      <c r="AI746" s="105">
-        <v>1</v>
-      </c>
-      <c r="AJ746" s="105">
-        <v>1</v>
-      </c>
-      <c r="AM746" s="105">
-        <v>1</v>
-      </c>
-      <c r="AN746" s="105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="747" spans="1:40" s="105" customFormat="1">
-      <c r="A747" s="105">
+      <c r="AI746" s="104">
+        <v>1</v>
+      </c>
+      <c r="AJ746" s="104">
+        <v>1</v>
+      </c>
+      <c r="AM746" s="104">
+        <v>1</v>
+      </c>
+      <c r="AN746" s="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:40" s="104" customFormat="1">
+      <c r="A747" s="104">
         <v>746</v>
       </c>
-      <c r="B747" s="105">
+      <c r="B747" s="104">
         <v>10663</v>
       </c>
-      <c r="F747" s="105">
-        <v>1</v>
-      </c>
-      <c r="G747" s="105" t="s">
+      <c r="F747" s="104">
+        <v>1</v>
+      </c>
+      <c r="G747" s="104" t="s">
         <v>1994</v>
       </c>
       <c r="H747" s="111"/>
-      <c r="J747" s="105" t="s">
+      <c r="J747" s="104" t="s">
         <v>1441</v>
       </c>
-      <c r="K747" s="105" t="s">
+      <c r="K747" s="104" t="s">
         <v>2003</v>
       </c>
-      <c r="M747" s="105">
+      <c r="M747" s="104">
         <v>-31</v>
       </c>
-      <c r="N747" s="105">
-        <v>0</v>
-      </c>
-      <c r="O747" s="105">
-        <v>0</v>
-      </c>
-      <c r="P747" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q747" s="105">
+      <c r="N747" s="104">
+        <v>0</v>
+      </c>
+      <c r="O747" s="104">
+        <v>0</v>
+      </c>
+      <c r="P747" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q747" s="104">
         <v>9800</v>
       </c>
-      <c r="R747" s="105" t="s">
+      <c r="R747" s="104" t="s">
         <v>2009</v>
       </c>
       <c r="S747" s="88" t="s">
         <v>2020</v>
       </c>
-      <c r="X747" s="105" t="s">
+      <c r="X747" s="104" t="s">
         <v>478</v>
       </c>
-      <c r="Y747" s="105">
+      <c r="Y747" s="104">
         <v>99999999</v>
       </c>
-      <c r="Z747" s="110">
+      <c r="Z747" s="109">
         <v>1640044800</v>
       </c>
-      <c r="AA747" s="110">
+      <c r="AA747" s="109">
         <v>1640620799</v>
       </c>
-      <c r="AB747" s="105">
+      <c r="AB747" s="104">
         <v>79</v>
       </c>
-      <c r="AI747" s="105">
-        <v>1</v>
-      </c>
-      <c r="AJ747" s="105">
-        <v>1</v>
-      </c>
-      <c r="AM747" s="105">
-        <v>1</v>
-      </c>
-      <c r="AN747" s="105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="748" spans="1:40" s="105" customFormat="1">
-      <c r="A748" s="105">
+      <c r="AI747" s="104">
+        <v>1</v>
+      </c>
+      <c r="AJ747" s="104">
+        <v>1</v>
+      </c>
+      <c r="AM747" s="104">
+        <v>1</v>
+      </c>
+      <c r="AN747" s="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:40" s="104" customFormat="1">
+      <c r="A748" s="104">
         <v>747</v>
       </c>
-      <c r="B748" s="105">
+      <c r="B748" s="104">
         <v>10664</v>
       </c>
-      <c r="F748" s="105">
-        <v>1</v>
-      </c>
-      <c r="G748" s="105" t="s">
+      <c r="F748" s="104">
+        <v>1</v>
+      </c>
+      <c r="G748" s="104" t="s">
         <v>1994</v>
       </c>
       <c r="H748" s="111"/>
-      <c r="J748" s="105" t="s">
+      <c r="J748" s="104" t="s">
         <v>1441</v>
       </c>
-      <c r="K748" s="105" t="s">
+      <c r="K748" s="104" t="s">
         <v>2004</v>
       </c>
-      <c r="M748" s="105">
+      <c r="M748" s="104">
         <v>-31</v>
       </c>
-      <c r="N748" s="105">
-        <v>0</v>
-      </c>
-      <c r="O748" s="105">
-        <v>0</v>
-      </c>
-      <c r="P748" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q748" s="105">
+      <c r="N748" s="104">
+        <v>0</v>
+      </c>
+      <c r="O748" s="104">
+        <v>0</v>
+      </c>
+      <c r="P748" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q748" s="104">
         <v>19800</v>
       </c>
-      <c r="R748" s="105" t="s">
+      <c r="R748" s="104" t="s">
         <v>2009</v>
       </c>
       <c r="S748" s="88" t="s">
         <v>2021</v>
       </c>
-      <c r="X748" s="105" t="s">
+      <c r="X748" s="104" t="s">
         <v>478</v>
       </c>
-      <c r="Y748" s="105">
+      <c r="Y748" s="104">
         <v>99999999</v>
       </c>
-      <c r="Z748" s="110">
+      <c r="Z748" s="109">
         <v>1640044800</v>
       </c>
-      <c r="AA748" s="110">
+      <c r="AA748" s="109">
         <v>1640620799</v>
       </c>
-      <c r="AB748" s="105">
+      <c r="AB748" s="104">
         <v>79</v>
       </c>
-      <c r="AI748" s="105">
-        <v>1</v>
-      </c>
-      <c r="AJ748" s="105">
-        <v>1</v>
-      </c>
-      <c r="AM748" s="105">
-        <v>1</v>
-      </c>
-      <c r="AN748" s="105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="749" spans="1:40" s="105" customFormat="1">
-      <c r="A749" s="105">
+      <c r="AI748" s="104">
+        <v>1</v>
+      </c>
+      <c r="AJ748" s="104">
+        <v>1</v>
+      </c>
+      <c r="AM748" s="104">
+        <v>1</v>
+      </c>
+      <c r="AN748" s="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:40" s="104" customFormat="1">
+      <c r="A749" s="104">
         <v>748</v>
       </c>
-      <c r="B749" s="105">
+      <c r="B749" s="104">
         <v>10665</v>
       </c>
-      <c r="F749" s="105">
-        <v>1</v>
-      </c>
-      <c r="G749" s="105" t="s">
+      <c r="F749" s="104">
+        <v>1</v>
+      </c>
+      <c r="G749" s="104" t="s">
         <v>1994</v>
       </c>
       <c r="H749" s="111"/>
-      <c r="J749" s="105" t="s">
+      <c r="J749" s="104" t="s">
         <v>1441</v>
       </c>
-      <c r="K749" s="105" t="s">
+      <c r="K749" s="104" t="s">
         <v>2005</v>
       </c>
-      <c r="M749" s="105">
+      <c r="M749" s="104">
         <v>-31</v>
       </c>
-      <c r="N749" s="105">
-        <v>0</v>
-      </c>
-      <c r="O749" s="105">
-        <v>0</v>
-      </c>
-      <c r="P749" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q749" s="105">
+      <c r="N749" s="104">
+        <v>0</v>
+      </c>
+      <c r="O749" s="104">
+        <v>0</v>
+      </c>
+      <c r="P749" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q749" s="104">
         <v>49800</v>
       </c>
-      <c r="R749" s="105" t="s">
+      <c r="R749" s="104" t="s">
         <v>2009</v>
       </c>
       <c r="S749" s="88" t="s">
         <v>2022</v>
       </c>
-      <c r="X749" s="105" t="s">
+      <c r="X749" s="104" t="s">
         <v>478</v>
       </c>
-      <c r="Y749" s="105">
+      <c r="Y749" s="104">
         <v>99999999</v>
       </c>
-      <c r="Z749" s="110">
+      <c r="Z749" s="109">
         <v>1640044800</v>
       </c>
-      <c r="AA749" s="110">
+      <c r="AA749" s="109">
         <v>1640620799</v>
       </c>
-      <c r="AB749" s="105">
+      <c r="AB749" s="104">
         <v>79</v>
       </c>
-      <c r="AI749" s="105">
-        <v>1</v>
-      </c>
-      <c r="AJ749" s="105">
-        <v>1</v>
-      </c>
-      <c r="AM749" s="105">
-        <v>1</v>
-      </c>
-      <c r="AN749" s="105">
+      <c r="AI749" s="104">
+        <v>1</v>
+      </c>
+      <c r="AJ749" s="104">
+        <v>1</v>
+      </c>
+      <c r="AM749" s="104">
+        <v>1</v>
+      </c>
+      <c r="AN749" s="104">
         <v>1</v>
       </c>
     </row>
@@ -64182,7 +64182,7 @@
       <c r="AD757" s="35" t="s">
         <v>2080</v>
       </c>
-      <c r="AE757" s="107" t="s">
+      <c r="AE757" s="106" t="s">
         <v>2095</v>
       </c>
       <c r="AI757" s="35">
@@ -64253,7 +64253,7 @@
       <c r="AD758" s="35" t="s">
         <v>2081</v>
       </c>
-      <c r="AE758" s="107" t="s">
+      <c r="AE758" s="106" t="s">
         <v>2100</v>
       </c>
       <c r="AI758" s="35">
@@ -64324,7 +64324,7 @@
       <c r="AD759" s="35" t="s">
         <v>2082</v>
       </c>
-      <c r="AE759" s="107" t="s">
+      <c r="AE759" s="106" t="s">
         <v>2102</v>
       </c>
       <c r="AI759" s="35">
@@ -64395,7 +64395,7 @@
       <c r="AD760" s="35" t="s">
         <v>2083</v>
       </c>
-      <c r="AE760" s="107" t="s">
+      <c r="AE760" s="106" t="s">
         <v>2105</v>
       </c>
       <c r="AI760" s="35">
@@ -64466,7 +64466,7 @@
       <c r="AD761" s="35" t="s">
         <v>2081</v>
       </c>
-      <c r="AE761" s="107" t="s">
+      <c r="AE761" s="106" t="s">
         <v>2100</v>
       </c>
       <c r="AI761" s="35">
@@ -64537,7 +64537,7 @@
       <c r="AD762" s="35" t="s">
         <v>2108</v>
       </c>
-      <c r="AE762" s="107" t="s">
+      <c r="AE762" s="106" t="s">
         <v>2109</v>
       </c>
       <c r="AI762" s="35">
@@ -64587,7 +64587,7 @@
       <c r="Q763" s="35">
         <v>19800</v>
       </c>
-      <c r="R763" s="106"/>
+      <c r="R763" s="105"/>
       <c r="X763" s="35" t="s">
         <v>2079</v>
       </c>
@@ -64609,7 +64609,7 @@
       <c r="AD763" s="35" t="s">
         <v>2111</v>
       </c>
-      <c r="AE763" s="107" t="s">
+      <c r="AE763" s="106" t="s">
         <v>2113</v>
       </c>
       <c r="AI763" s="35">
@@ -64659,7 +64659,7 @@
       <c r="Q764" s="35">
         <v>29800</v>
       </c>
-      <c r="R764" s="106"/>
+      <c r="R764" s="105"/>
       <c r="X764" s="35" t="s">
         <v>2079</v>
       </c>
@@ -64681,7 +64681,7 @@
       <c r="AD764" s="35" t="s">
         <v>2084</v>
       </c>
-      <c r="AE764" s="107" t="s">
+      <c r="AE764" s="106" t="s">
         <v>2120</v>
       </c>
       <c r="AI764" s="35">
@@ -64752,7 +64752,7 @@
       <c r="AD765" s="35" t="s">
         <v>2108</v>
       </c>
-      <c r="AE765" s="107" t="s">
+      <c r="AE765" s="106" t="s">
         <v>2102</v>
       </c>
       <c r="AI765" s="35">
@@ -64823,7 +64823,7 @@
       <c r="AD766" s="35" t="s">
         <v>2082</v>
       </c>
-      <c r="AE766" s="107" t="s">
+      <c r="AE766" s="106" t="s">
         <v>2109</v>
       </c>
       <c r="AI766" s="35">
@@ -64894,7 +64894,7 @@
       <c r="AD767" s="35" t="s">
         <v>2083</v>
       </c>
-      <c r="AE767" s="107" t="s">
+      <c r="AE767" s="106" t="s">
         <v>2113</v>
       </c>
       <c r="AI767" s="35">
@@ -64965,7 +64965,7 @@
       <c r="AD768" s="35" t="s">
         <v>2119</v>
       </c>
-      <c r="AE768" s="107" t="s">
+      <c r="AE768" s="106" t="s">
         <v>2121</v>
       </c>
       <c r="AI768" s="35">
@@ -65036,7 +65036,7 @@
       <c r="AD769" s="35" t="s">
         <v>2083</v>
       </c>
-      <c r="AE769" s="107" t="s">
+      <c r="AE769" s="106" t="s">
         <v>2122</v>
       </c>
       <c r="AI769" s="35">
@@ -65107,7 +65107,7 @@
       <c r="AD770" s="35" t="s">
         <v>2083</v>
       </c>
-      <c r="AE770" s="107" t="s">
+      <c r="AE770" s="106" t="s">
         <v>2112</v>
       </c>
       <c r="AI770" s="35">
@@ -65178,7 +65178,7 @@
       <c r="AD771" s="35" t="s">
         <v>2125</v>
       </c>
-      <c r="AE771" s="107" t="s">
+      <c r="AE771" s="106" t="s">
         <v>2126</v>
       </c>
       <c r="AI771" s="35">
@@ -65249,7 +65249,7 @@
       <c r="AD772" s="35" t="s">
         <v>2085</v>
       </c>
-      <c r="AE772" s="107" t="s">
+      <c r="AE772" s="106" t="s">
         <v>2127</v>
       </c>
       <c r="AI772" s="35">
@@ -65278,7 +65278,7 @@
       <c r="G773" s="35" t="s">
         <v>2129</v>
       </c>
-      <c r="J773" s="109" t="s">
+      <c r="J773" s="108" t="s">
         <v>1538</v>
       </c>
       <c r="K773" s="35" t="s">
@@ -65346,7 +65346,7 @@
       <c r="G774" s="35" t="s">
         <v>2129</v>
       </c>
-      <c r="J774" s="109" t="s">
+      <c r="J774" s="108" t="s">
         <v>1538</v>
       </c>
       <c r="K774" s="35" t="s">
@@ -65414,7 +65414,7 @@
       <c r="G775" s="35" t="s">
         <v>2129</v>
       </c>
-      <c r="J775" s="109" t="s">
+      <c r="J775" s="108" t="s">
         <v>1538</v>
       </c>
       <c r="K775" s="35" t="s">
@@ -65482,7 +65482,7 @@
       <c r="G776" s="35" t="s">
         <v>2129</v>
       </c>
-      <c r="J776" s="109" t="s">
+      <c r="J776" s="108" t="s">
         <v>1538</v>
       </c>
       <c r="K776" s="35" t="s">
@@ -65550,7 +65550,7 @@
       <c r="G777" s="35" t="s">
         <v>2129</v>
       </c>
-      <c r="J777" s="109" t="s">
+      <c r="J777" s="108" t="s">
         <v>1545</v>
       </c>
       <c r="K777" s="35" t="s">
@@ -65618,7 +65618,7 @@
       <c r="G778" s="35" t="s">
         <v>2129</v>
       </c>
-      <c r="J778" s="109" t="s">
+      <c r="J778" s="108" t="s">
         <v>1545</v>
       </c>
       <c r="K778" s="35" t="s">
@@ -65686,7 +65686,7 @@
       <c r="G779" s="35" t="s">
         <v>2129</v>
       </c>
-      <c r="J779" s="109" t="s">
+      <c r="J779" s="108" t="s">
         <v>1545</v>
       </c>
       <c r="K779" s="35" t="s">
@@ -65754,7 +65754,7 @@
       <c r="G780" s="35" t="s">
         <v>2129</v>
       </c>
-      <c r="J780" s="109" t="s">
+      <c r="J780" s="108" t="s">
         <v>1545</v>
       </c>
       <c r="K780" s="35" t="s">
@@ -65822,7 +65822,7 @@
       <c r="G781" s="35" t="s">
         <v>2129</v>
       </c>
-      <c r="J781" s="109" t="s">
+      <c r="J781" s="108" t="s">
         <v>1552</v>
       </c>
       <c r="K781" s="35" t="s">
@@ -65890,7 +65890,7 @@
       <c r="G782" s="35" t="s">
         <v>2129</v>
       </c>
-      <c r="J782" s="109" t="s">
+      <c r="J782" s="108" t="s">
         <v>1552</v>
       </c>
       <c r="K782" s="35" t="s">
@@ -65958,7 +65958,7 @@
       <c r="G783" s="35" t="s">
         <v>2129</v>
       </c>
-      <c r="J783" s="109" t="s">
+      <c r="J783" s="108" t="s">
         <v>1552</v>
       </c>
       <c r="K783" s="35" t="s">
@@ -66026,7 +66026,7 @@
       <c r="G784" s="35" t="s">
         <v>2129</v>
       </c>
-      <c r="J784" s="109" t="s">
+      <c r="J784" s="108" t="s">
         <v>1552</v>
       </c>
       <c r="K784" s="35" t="s">
@@ -66094,7 +66094,7 @@
       <c r="G785" s="35" t="s">
         <v>2129</v>
       </c>
-      <c r="J785" s="109" t="s">
+      <c r="J785" s="108" t="s">
         <v>1441</v>
       </c>
       <c r="K785" s="35" t="s">
@@ -66162,7 +66162,7 @@
       <c r="G786" s="35" t="s">
         <v>2129</v>
       </c>
-      <c r="J786" s="109" t="s">
+      <c r="J786" s="108" t="s">
         <v>1441</v>
       </c>
       <c r="K786" s="35" t="s">
@@ -66230,7 +66230,7 @@
       <c r="G787" s="35" t="s">
         <v>2129</v>
       </c>
-      <c r="J787" s="109" t="s">
+      <c r="J787" s="108" t="s">
         <v>1441</v>
       </c>
       <c r="K787" s="35" t="s">
@@ -66298,7 +66298,7 @@
       <c r="G788" s="35" t="s">
         <v>2129</v>
       </c>
-      <c r="J788" s="109" t="s">
+      <c r="J788" s="108" t="s">
         <v>1441</v>
       </c>
       <c r="K788" s="35" t="s">

--- a/config_12.21/shoping_config.xlsx
+++ b/config_12.21/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6159" uniqueCount="2171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6159" uniqueCount="2170">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8328,18 +8328,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","jing_bi","prop_tiny_game_cion",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","jing_bi","prop_tiny_game_cion",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","jing_bi","prop_tiny_game_cion","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","jing_bi","prop_guess_apple_bet_1",</t>
   </si>
   <si>
@@ -8422,6 +8410,12 @@
   <si>
     <t>86400,1,0</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_tiny_game_coin",</t>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_tiny_game_coin","jing_bi",</t>
   </si>
 </sst>
 </file>
@@ -14927,10 +14921,10 @@
   <dimension ref="A1:AO788"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Z704" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="R767" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB721" sqref="AB721"/>
+      <selection pane="bottomRight" activeCell="R792" sqref="R791:R792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -65300,13 +65294,13 @@
         <v>600</v>
       </c>
       <c r="R773" s="35" t="s">
-        <v>2146</v>
+        <v>2168</v>
       </c>
       <c r="S773" s="36" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="X773" s="35" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="Y773" s="35">
         <v>99999999</v>
@@ -65368,13 +65362,13 @@
         <v>1000</v>
       </c>
       <c r="R774" s="35" t="s">
-        <v>2146</v>
+        <v>2168</v>
       </c>
       <c r="S774" s="36" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="X774" s="35" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="Y774" s="35">
         <v>99999999</v>
@@ -65436,10 +65430,10 @@
         <v>1800</v>
       </c>
       <c r="R775" s="35" t="s">
-        <v>2147</v>
+        <v>2168</v>
       </c>
       <c r="S775" s="36" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="X775" s="35" t="s">
         <v>478</v>
@@ -65504,10 +65498,10 @@
         <v>3400</v>
       </c>
       <c r="R776" s="35" t="s">
-        <v>2148</v>
+        <v>2169</v>
       </c>
       <c r="S776" s="36" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="X776" s="35" t="s">
         <v>478</v>
@@ -65572,10 +65566,10 @@
         <v>1800</v>
       </c>
       <c r="R777" s="35" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="S777" s="36" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="X777" s="35" t="s">
         <v>478</v>
@@ -65640,10 +65634,10 @@
         <v>3000</v>
       </c>
       <c r="R778" s="35" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="S778" s="36" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="X778" s="35" t="s">
         <v>478</v>
@@ -65708,10 +65702,10 @@
         <v>4800</v>
       </c>
       <c r="R779" s="35" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="S779" s="36" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="X779" s="35" t="s">
         <v>478</v>
@@ -65776,10 +65770,10 @@
         <v>9600</v>
       </c>
       <c r="R780" s="35" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="S780" s="36" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="X780" s="35" t="s">
         <v>478</v>
@@ -65844,10 +65838,10 @@
         <v>4800</v>
       </c>
       <c r="R781" s="35" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="S781" s="36" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="X781" s="35" t="s">
         <v>478</v>
@@ -65912,10 +65906,10 @@
         <v>9800</v>
       </c>
       <c r="R782" s="35" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="S782" s="36" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="X782" s="35" t="s">
         <v>478</v>
@@ -65980,10 +65974,10 @@
         <v>19800</v>
       </c>
       <c r="R783" s="35" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="S783" s="36" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="X783" s="35" t="s">
         <v>478</v>
@@ -66048,10 +66042,10 @@
         <v>34400</v>
       </c>
       <c r="R784" s="35" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="S784" s="36" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="X784" s="35" t="s">
         <v>478</v>
@@ -66116,10 +66110,10 @@
         <v>9800</v>
       </c>
       <c r="R785" s="35" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="S785" s="36" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
       <c r="X785" s="35" t="s">
         <v>478</v>
@@ -66184,10 +66178,10 @@
         <v>19800</v>
       </c>
       <c r="R786" s="35" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="S786" s="36" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="X786" s="35" t="s">
         <v>478</v>
@@ -66252,10 +66246,10 @@
         <v>49800</v>
       </c>
       <c r="R787" s="35" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="S787" s="36" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="X787" s="35" t="s">
         <v>478</v>
@@ -66320,10 +66314,10 @@
         <v>79400</v>
       </c>
       <c r="R788" s="35" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="S788" s="36" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
       <c r="X788" s="35" t="s">
         <v>478</v>
